--- a/Jogos_da_Semana_FlashScore_2024-09-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD44"/>
+  <dimension ref="A1:BD45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -935,7 +935,7 @@
         <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
         <v>2.25</v>
@@ -953,10 +953,10 @@
         <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" t="n">
         <v>2.04</v>
@@ -989,19 +989,19 @@
         <v>12</v>
       </c>
       <c r="AA3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB3" t="n">
         <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
@@ -1028,7 +1028,7 @@
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO3" t="n">
         <v>8.5</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
         <v>2.88</v>
@@ -1126,7 +1126,7 @@
         <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
@@ -1153,10 +1153,10 @@
         <v>2.25</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
@@ -1168,7 +1168,7 @@
         <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA4" t="n">
         <v>21</v>
@@ -1186,7 +1186,7 @@
         <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
         <v>501</v>
@@ -1195,7 +1195,7 @@
         <v>8.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
         <v>15</v>
@@ -1210,13 +1210,13 @@
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO4" t="n">
         <v>12</v>
       </c>
       <c r="AP4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
         <v>41</v>
@@ -1234,7 +1234,7 @@
         <v>9</v>
       </c>
       <c r="AV4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW4" t="n">
         <v>126</v>
@@ -1246,7 +1246,7 @@
         <v>23</v>
       </c>
       <c r="AZ4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA4" t="n">
         <v>81</v>
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I5" t="n">
         <v>13</v>
@@ -1308,13 +1308,13 @@
         <v>2.88</v>
       </c>
       <c r="L5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O5" t="n">
         <v>1.14</v>
@@ -1335,13 +1335,13 @@
         <v>3.75</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X5" t="n">
         <v>6.5</v>
@@ -1362,16 +1362,16 @@
         <v>17</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AH5" t="n">
         <v>29</v>
@@ -1383,7 +1383,7 @@
         <v>34</v>
       </c>
       <c r="AK5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL5" t="n">
         <v>81</v>
@@ -1392,7 +1392,7 @@
         <v>67</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO5" t="n">
         <v>5</v>
@@ -1413,7 +1413,7 @@
         <v>3.75</v>
       </c>
       <c r="AU5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV5" t="n">
         <v>67</v>
@@ -1422,22 +1422,22 @@
         <v>151</v>
       </c>
       <c r="AX5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY5" t="n">
         <v>51</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA5" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BB5" t="n">
         <v>251</v>
       </c>
       <c r="BC5" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="H6" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="J6" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L6" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1514,40 +1514,40 @@
         <v>1.29</v>
       </c>
       <c r="T6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="U6" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="V6" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="W6" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="X6" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Y6" t="n">
         <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA6" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC6" t="n">
         <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AF6" t="n">
         <v>32</v>
@@ -1556,22 +1556,22 @@
         <v>175</v>
       </c>
       <c r="AH6" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK6" t="n">
         <v>27</v>
       </c>
       <c r="AL6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AM6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN6" t="n">
         <v>5</v>
@@ -1580,19 +1580,19 @@
         <v>13.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR6" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AS6" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AU6" t="n">
         <v>6.2</v>
@@ -1604,19 +1604,19 @@
         <v>500</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="AY6" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AZ6" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="BA6" t="n">
         <v>45</v>
       </c>
       <c r="BB6" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="BC6" t="n">
         <v>150</v>
@@ -1657,16 +1657,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
         <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J7" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K7" t="n">
         <v>2.2</v>
@@ -1699,16 +1699,16 @@
         <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y7" t="n">
         <v>8.5</v>
@@ -1720,10 +1720,10 @@
         <v>15</v>
       </c>
       <c r="AB7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD7" t="n">
         <v>7</v>
@@ -1735,7 +1735,7 @@
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH7" t="n">
         <v>12</v>
@@ -1756,7 +1756,7 @@
         <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO7" t="n">
         <v>9</v>
@@ -1795,10 +1795,10 @@
         <v>34</v>
       </c>
       <c r="BA7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC7" t="n">
         <v>251</v>
@@ -2027,7 +2027,7 @@
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J9" t="n">
         <v>3.1</v>
@@ -2051,10 +2051,10 @@
         <v>2.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R9" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S9" t="n">
         <v>1.67</v>
@@ -2063,10 +2063,10 @@
         <v>2.1</v>
       </c>
       <c r="U9" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W9" t="n">
         <v>5</v>
@@ -2221,10 +2221,10 @@
         <v>3.25</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
         <v>1.44</v>
@@ -2567,28 +2567,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
         <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.33</v>
@@ -2597,10 +2597,10 @@
         <v>3.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R12" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S12" t="n">
         <v>1.44</v>
@@ -2609,31 +2609,31 @@
         <v>2.63</v>
       </c>
       <c r="U12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB12" t="n">
         <v>34</v>
       </c>
-      <c r="AA12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>41</v>
-      </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD12" t="n">
         <v>6.5</v>
@@ -2645,43 +2645,43 @@
         <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>10</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AK12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL12" t="n">
         <v>21</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>19</v>
       </c>
       <c r="AM12" t="n">
         <v>29</v>
       </c>
       <c r="AN12" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO12" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ12" t="n">
         <v>51</v>
       </c>
       <c r="AR12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT12" t="n">
         <v>2.63</v>
@@ -2696,16 +2696,16 @@
         <v>126</v>
       </c>
       <c r="AX12" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ12" t="n">
         <v>23</v>
       </c>
       <c r="BA12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB12" t="n">
         <v>67</v>
@@ -2773,10 +2773,10 @@
         <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
         <v>2.1</v>
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K14" t="n">
         <v>2.4</v>
       </c>
       <c r="L14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2961,10 +2961,10 @@
         <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R14" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S14" t="n">
         <v>1.33</v>
@@ -2973,28 +2973,28 @@
         <v>3.25</v>
       </c>
       <c r="U14" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y14" t="n">
         <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA14" t="n">
         <v>12</v>
       </c>
       <c r="AB14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC14" t="n">
         <v>12</v>
@@ -3009,16 +3009,16 @@
         <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
         <v>41</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
         <v>81</v>
@@ -3033,13 +3033,13 @@
         <v>3.4</v>
       </c>
       <c r="AO14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP14" t="n">
         <v>19</v>
       </c>
       <c r="AQ14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR14" t="n">
         <v>41</v>
@@ -3060,16 +3060,16 @@
         <v>126</v>
       </c>
       <c r="AX14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ14" t="n">
         <v>41</v>
       </c>
       <c r="BA14" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB14" t="n">
         <v>151</v>
@@ -3143,10 +3143,10 @@
         <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R15" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S15" t="n">
         <v>1.33</v>
@@ -3325,10 +3325,10 @@
         <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R16" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S16" t="n">
         <v>1.33</v>
@@ -3659,13 +3659,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J18" t="n">
         <v>3.5</v>
@@ -3674,7 +3674,7 @@
         <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -3716,7 +3716,7 @@
         <v>11</v>
       </c>
       <c r="Z18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA18" t="n">
         <v>23</v>
@@ -3737,22 +3737,22 @@
         <v>41</v>
       </c>
       <c r="AG18" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI18" t="n">
         <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM18" t="n">
         <v>26</v>
@@ -3761,7 +3761,7 @@
         <v>5</v>
       </c>
       <c r="AO18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP18" t="n">
         <v>23</v>
@@ -3788,10 +3788,10 @@
         <v>501</v>
       </c>
       <c r="AX18" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ18" t="n">
         <v>21</v>
@@ -4023,13 +4023,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H20" t="n">
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J20" t="n">
         <v>3.4</v>
@@ -4041,10 +4041,10 @@
         <v>3.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O20" t="n">
         <v>1.5</v>
@@ -4053,10 +4053,10 @@
         <v>2.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R20" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S20" t="n">
         <v>1.57</v>
@@ -4080,10 +4080,10 @@
         <v>11</v>
       </c>
       <c r="Z20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB20" t="n">
         <v>41</v>
@@ -4104,7 +4104,7 @@
         <v>201</v>
       </c>
       <c r="AH20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI20" t="n">
         <v>13</v>
@@ -4113,7 +4113,7 @@
         <v>12</v>
       </c>
       <c r="AK20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL20" t="n">
         <v>29</v>
@@ -4122,7 +4122,7 @@
         <v>41</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO20" t="n">
         <v>15</v>
@@ -4229,16 +4229,16 @@
         <v>11</v>
       </c>
       <c r="O21" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P21" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R21" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S21" t="n">
         <v>1.36</v>
@@ -4396,7 +4396,7 @@
         <v>3.75</v>
       </c>
       <c r="J22" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K22" t="n">
         <v>2.2</v>
@@ -4411,16 +4411,16 @@
         <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R22" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S22" t="n">
         <v>1.4</v>
@@ -4429,10 +4429,10 @@
         <v>2.75</v>
       </c>
       <c r="U22" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W22" t="n">
         <v>6.5</v>
@@ -4450,25 +4450,25 @@
         <v>17</v>
       </c>
       <c r="AB22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD22" t="n">
         <v>6.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG22" t="n">
         <v>351</v>
       </c>
       <c r="AH22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI22" t="n">
         <v>19</v>
@@ -4572,73 +4572,73 @@
         <v>2.1</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J23" t="n">
         <v>2.88</v>
       </c>
       <c r="K23" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L23" t="n">
         <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.03</v>
+        <v>2.2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="S23" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T23" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V23" t="n">
         <v>1.8</v>
       </c>
-      <c r="V23" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z23" t="n">
         <v>19</v>
       </c>
       <c r="AA23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AD23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
         <v>15</v>
@@ -4647,25 +4647,25 @@
         <v>51</v>
       </c>
       <c r="AG23" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI23" t="n">
         <v>17</v>
       </c>
       <c r="AJ23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL23" t="n">
         <v>29</v>
       </c>
       <c r="AM23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN23" t="n">
         <v>4</v>
@@ -4674,22 +4674,22 @@
         <v>12</v>
       </c>
       <c r="AP23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ23" t="n">
         <v>41</v>
       </c>
       <c r="AR23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS23" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV23" t="n">
         <v>51</v>
@@ -4701,7 +4701,7 @@
         <v>5.5</v>
       </c>
       <c r="AY23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ23" t="n">
         <v>29</v>
@@ -4710,10 +4710,10 @@
         <v>67</v>
       </c>
       <c r="BB23" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC23" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD23" t="n">
         <v>81</v>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J24" t="n">
         <v>3.75</v>
@@ -4766,7 +4766,7 @@
         <v>1.95</v>
       </c>
       <c r="L24" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M24" t="n">
         <v>1.1</v>
@@ -4811,7 +4811,7 @@
         <v>29</v>
       </c>
       <c r="AA24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB24" t="n">
         <v>41</v>
@@ -4838,10 +4838,10 @@
         <v>11</v>
       </c>
       <c r="AJ24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL24" t="n">
         <v>23</v>
@@ -4880,7 +4880,7 @@
         <v>81</v>
       </c>
       <c r="AX24" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AY24" t="n">
         <v>15</v>
@@ -4933,13 +4933,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H25" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I25" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
         <v>2.05</v>
@@ -4951,10 +4951,10 @@
         <v>7.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O25" t="n">
         <v>1.36</v>
@@ -4975,10 +4975,10 @@
         <v>2.63</v>
       </c>
       <c r="U25" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V25" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W25" t="n">
         <v>5.5</v>
@@ -4990,7 +4990,7 @@
         <v>9</v>
       </c>
       <c r="Z25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA25" t="n">
         <v>15</v>
@@ -4999,13 +4999,13 @@
         <v>34</v>
       </c>
       <c r="AC25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD25" t="n">
         <v>8.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF25" t="n">
         <v>81</v>
@@ -5014,13 +5014,13 @@
         <v>1250</v>
       </c>
       <c r="AH25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI25" t="n">
         <v>34</v>
       </c>
       <c r="AJ25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK25" t="n">
         <v>81</v>
@@ -5029,16 +5029,16 @@
         <v>51</v>
       </c>
       <c r="AM25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO25" t="n">
         <v>7.5</v>
       </c>
       <c r="AP25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ25" t="n">
         <v>23</v>
@@ -5062,7 +5062,7 @@
         <v>81</v>
       </c>
       <c r="AX25" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY25" t="n">
         <v>41</v>
@@ -5071,10 +5071,10 @@
         <v>41</v>
       </c>
       <c r="BA25" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB25" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC25" t="n">
         <v>501</v>
@@ -5297,22 +5297,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H27" t="n">
         <v>3.6</v>
       </c>
       <c r="I27" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="J27" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
         <v>2.25</v>
       </c>
       <c r="L27" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M27" t="n">
         <v>1.04</v>
@@ -5348,7 +5348,7 @@
         <v>12</v>
       </c>
       <c r="X27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y27" t="n">
         <v>13</v>
@@ -5381,7 +5381,7 @@
         <v>8.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ27" t="n">
         <v>8.5</v>
@@ -5396,10 +5396,10 @@
         <v>23</v>
       </c>
       <c r="AN27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP27" t="n">
         <v>26</v>
@@ -5497,22 +5497,22 @@
         <v>3.75</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O28" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P28" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R28" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S28" t="n">
         <v>1.36</v>
@@ -5664,7 +5664,7 @@
         <v>2.5</v>
       </c>
       <c r="H29" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
         <v>2.55</v>
@@ -5679,10 +5679,10 @@
         <v>3.1</v>
       </c>
       <c r="M29" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O29" t="n">
         <v>1.2</v>
@@ -5697,16 +5697,16 @@
         <v>2.15</v>
       </c>
       <c r="S29" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T29" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U29" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V29" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W29" t="n">
         <v>11</v>
@@ -5727,7 +5727,7 @@
         <v>23</v>
       </c>
       <c r="AC29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD29" t="n">
         <v>7</v>
@@ -5766,7 +5766,7 @@
         <v>13</v>
       </c>
       <c r="AP29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ29" t="n">
         <v>41</v>
@@ -5775,10 +5775,10 @@
         <v>51</v>
       </c>
       <c r="AS29" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT29" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU29" t="n">
         <v>7</v>
@@ -5805,7 +5805,7 @@
         <v>51</v>
       </c>
       <c r="BC29" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD29" t="n">
         <v>81</v>
@@ -5843,28 +5843,28 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H30" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I30" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K30" t="n">
         <v>2.3</v>
       </c>
       <c r="L30" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M30" t="n">
         <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O30" t="n">
         <v>1.22</v>
@@ -5900,7 +5900,7 @@
         <v>8.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA30" t="n">
         <v>13</v>
@@ -5909,10 +5909,10 @@
         <v>23</v>
       </c>
       <c r="AC30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
         <v>15</v>
@@ -5930,10 +5930,10 @@
         <v>23</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL30" t="n">
         <v>34</v>
@@ -5942,10 +5942,10 @@
         <v>34</v>
       </c>
       <c r="AN30" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO30" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP30" t="n">
         <v>19</v>
@@ -5954,7 +5954,7 @@
         <v>29</v>
       </c>
       <c r="AR30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS30" t="n">
         <v>126</v>
@@ -5963,7 +5963,7 @@
         <v>3.25</v>
       </c>
       <c r="AU30" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV30" t="n">
         <v>51</v>
@@ -5972,16 +5972,16 @@
         <v>81</v>
       </c>
       <c r="AX30" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AY30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA30" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB30" t="n">
         <v>81</v>
@@ -6025,22 +6025,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H31" t="n">
         <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J31" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
         <v>2.3</v>
       </c>
       <c r="L31" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
@@ -6061,10 +6061,10 @@
         <v>2.2</v>
       </c>
       <c r="S31" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T31" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U31" t="n">
         <v>1.53</v>
@@ -6082,10 +6082,10 @@
         <v>10</v>
       </c>
       <c r="Z31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB31" t="n">
         <v>23</v>
@@ -6100,13 +6100,13 @@
         <v>12</v>
       </c>
       <c r="AF31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG31" t="n">
         <v>126</v>
       </c>
       <c r="AH31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI31" t="n">
         <v>15</v>
@@ -6115,7 +6115,7 @@
         <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL31" t="n">
         <v>19</v>
@@ -6130,7 +6130,7 @@
         <v>13</v>
       </c>
       <c r="AP31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ31" t="n">
         <v>41</v>
@@ -6139,10 +6139,10 @@
         <v>51</v>
       </c>
       <c r="AS31" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT31" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU31" t="n">
         <v>7</v>
@@ -6157,7 +6157,7 @@
         <v>5</v>
       </c>
       <c r="AY31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ31" t="n">
         <v>21</v>
@@ -6207,16 +6207,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H32" t="n">
         <v>3.7</v>
       </c>
       <c r="I32" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K32" t="n">
         <v>2.3</v>
@@ -6291,7 +6291,7 @@
         <v>8.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ32" t="n">
         <v>8.5</v>
@@ -6309,7 +6309,7 @@
         <v>6</v>
       </c>
       <c r="AO32" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP32" t="n">
         <v>26</v>
@@ -6339,13 +6339,13 @@
         <v>4</v>
       </c>
       <c r="AY32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AZ32" t="n">
         <v>19</v>
       </c>
       <c r="BA32" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB32" t="n">
         <v>51</v>
@@ -6419,10 +6419,10 @@
         <v>4.33</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R33" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S33" t="n">
         <v>1.33</v>
@@ -6431,10 +6431,10 @@
         <v>3.25</v>
       </c>
       <c r="U33" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V33" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W33" t="n">
         <v>9</v>
@@ -6452,7 +6452,7 @@
         <v>15</v>
       </c>
       <c r="AB33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC33" t="n">
         <v>15</v>
@@ -6461,7 +6461,7 @@
         <v>7.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF33" t="n">
         <v>41</v>
@@ -6494,7 +6494,7 @@
         <v>9.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ33" t="n">
         <v>29</v>
@@ -6524,13 +6524,13 @@
         <v>21</v>
       </c>
       <c r="AZ33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA33" t="n">
         <v>67</v>
       </c>
       <c r="BB33" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC33" t="n">
         <v>151</v>
@@ -6542,7 +6542,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6H7fuycC</t>
+          <t>l28elbME</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6552,179 +6552,179 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Komarno</t>
+          <t>Cajamarca</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ruzomberok</t>
+          <t>Carlos Mannucci</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.87</v>
+        <v>1.83</v>
       </c>
       <c r="H34" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I34" t="n">
-        <v>2.4</v>
+        <v>4.33</v>
       </c>
       <c r="J34" t="n">
-        <v>3.45</v>
+        <v>2.5</v>
       </c>
       <c r="K34" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="M34" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="O34" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P34" t="n">
         <v>3.25</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R34" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S34" t="n">
         <v>1.44</v>
       </c>
       <c r="T34" t="n">
-        <v>2.72</v>
+        <v>2.63</v>
       </c>
       <c r="U34" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="V34" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="W34" t="n">
-        <v>8.75</v>
+        <v>6.5</v>
       </c>
       <c r="X34" t="n">
-        <v>15.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y34" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH34" t="n">
         <v>11</v>
       </c>
-      <c r="Z34" t="n">
-        <v>37</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AI34" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AJ34" t="n">
-        <v>9.75</v>
+        <v>15</v>
       </c>
       <c r="AK34" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="AL34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP34" t="n">
         <v>21</v>
       </c>
-      <c r="AM34" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>16</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>24</v>
-      </c>
       <c r="AQ34" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AR34" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AS34" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="AU34" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AV34" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AW34" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AX34" t="n">
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="AY34" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AZ34" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="BA34" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="BB34" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="BC34" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BD34" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>tExdvcor</t>
+          <t>6H7fuycC</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6734,179 +6734,179 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SLOVAKIA - NIKE LIGA</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Gefle</t>
+          <t>Komarno</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ostersund</t>
+          <t>Ruzomberok</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.7</v>
+        <v>2.87</v>
       </c>
       <c r="H35" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I35" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="J35" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="K35" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L35" t="n">
         <v>3</v>
       </c>
       <c r="M35" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N35" t="n">
-        <v>15</v>
+        <v>7.6</v>
       </c>
       <c r="O35" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="P35" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="R35" t="n">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
       <c r="S35" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T35" t="n">
-        <v>3.25</v>
+        <v>2.72</v>
       </c>
       <c r="U35" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="V35" t="n">
-        <v>2.25</v>
+        <v>2.02</v>
       </c>
       <c r="W35" t="n">
-        <v>11</v>
+        <v>8.75</v>
       </c>
       <c r="X35" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y35" t="n">
         <v>11</v>
       </c>
       <c r="Z35" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AA35" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB35" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AC35" t="n">
-        <v>13</v>
+        <v>7.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AE35" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AG35" t="n">
-        <v>126</v>
+        <v>500</v>
       </c>
       <c r="AH35" t="n">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="AI35" t="n">
         <v>13</v>
       </c>
       <c r="AJ35" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AK35" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AL35" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AM35" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AN35" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO35" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP35" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AQ35" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AR35" t="n">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="AS35" t="n">
-        <v>126</v>
+        <v>300</v>
       </c>
       <c r="AT35" t="n">
-        <v>3.25</v>
+        <v>2.67</v>
       </c>
       <c r="AU35" t="n">
         <v>7</v>
       </c>
       <c r="AV35" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AW35" t="n">
-        <v>451</v>
+        <v>51</v>
       </c>
       <c r="AX35" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="AY35" t="n">
         <v>13</v>
       </c>
       <c r="AZ35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA35" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="BB35" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="BC35" t="n">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="BD35" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0KfTrwwR</t>
+          <t>tExdvcor</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6926,31 +6926,31 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>Gefle</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Helsingborg</t>
+          <t>Ostersund</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="H36" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I36" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J36" t="n">
         <v>3.25</v>
       </c>
-      <c r="J36" t="n">
-        <v>2.63</v>
-      </c>
       <c r="K36" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L36" t="n">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="M36" t="n">
         <v>1.04</v>
@@ -6959,91 +6959,91 @@
         <v>13</v>
       </c>
       <c r="O36" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P36" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="R36" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="S36" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T36" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U36" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="V36" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="W36" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="X36" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Y36" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z36" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AA36" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD36" t="n">
         <v>7</v>
       </c>
       <c r="AE36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF36" t="n">
         <v>41</v>
       </c>
       <c r="AG36" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AH36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI36" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AJ36" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AK36" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AL36" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AM36" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AN36" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AO36" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AP36" t="n">
         <v>21</v>
       </c>
       <c r="AQ36" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR36" t="n">
         <v>51</v>
@@ -7052,43 +7052,43 @@
         <v>126</v>
       </c>
       <c r="AT36" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU36" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV36" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW36" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AX36" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AY36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ36" t="n">
         <v>19</v>
       </c>
-      <c r="AZ36" t="n">
-        <v>23</v>
-      </c>
       <c r="BA36" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB36" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC36" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD36" t="n">
         <v>151</v>
-      </c>
-      <c r="BD36" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ERz4xyGf</t>
+          <t>0KfTrwwR</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7108,31 +7108,31 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Utsikten</t>
+          <t>Landskrona</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Orgryte</t>
+          <t>Helsingborg</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="H37" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I37" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K37" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L37" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M37" t="n">
         <v>1.04</v>
@@ -7147,7 +7147,7 @@
         <v>3.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R37" t="n">
         <v>2</v>
@@ -7159,28 +7159,28 @@
         <v>3</v>
       </c>
       <c r="U37" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V37" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X37" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y37" t="n">
         <v>9</v>
       </c>
-      <c r="X37" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB37" t="n">
         <v>23</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>26</v>
       </c>
       <c r="AC37" t="n">
         <v>12</v>
@@ -7195,31 +7195,31 @@
         <v>41</v>
       </c>
       <c r="AG37" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI37" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM37" t="n">
         <v>29</v>
       </c>
       <c r="AN37" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO37" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP37" t="n">
         <v>21</v>
@@ -7246,10 +7246,10 @@
         <v>501</v>
       </c>
       <c r="AX37" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY37" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ37" t="n">
         <v>23</v>
@@ -7270,7 +7270,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>zNp4Q0uQ</t>
+          <t>ERz4xyGf</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7280,143 +7280,143 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Utsikten</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Orgryte</t>
         </is>
       </c>
       <c r="G38" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N38" t="n">
+        <v>13</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R38" t="n">
         <v>2.1</v>
       </c>
-      <c r="H38" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I38" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K38" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N38" t="n">
-        <v>17</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R38" t="n">
-        <v>2.4</v>
-      </c>
       <c r="S38" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="T38" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U38" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="V38" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="W38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X38" t="n">
         <v>13</v>
       </c>
       <c r="Y38" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA38" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB38" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC38" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD38" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE38" t="n">
         <v>12</v>
       </c>
       <c r="AF38" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG38" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AH38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI38" t="n">
         <v>15</v>
       </c>
-      <c r="AI38" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL38" t="n">
         <v>21</v>
       </c>
       <c r="AM38" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN38" t="n">
         <v>4.5</v>
       </c>
       <c r="AO38" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP38" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ38" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR38" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS38" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT38" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU38" t="n">
         <v>7</v>
@@ -7425,10 +7425,10 @@
         <v>41</v>
       </c>
       <c r="AW38" t="n">
-        <v>301</v>
+        <v>451</v>
       </c>
       <c r="AX38" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY38" t="n">
         <v>15</v>
@@ -7443,16 +7443,16 @@
         <v>51</v>
       </c>
       <c r="BC38" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD38" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>zTHDH9jI</t>
+          <t>zNp4Q0uQ</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7462,179 +7462,179 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Bellinzona</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="H39" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="I39" t="n">
         <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="K39" t="n">
-        <v>2.12</v>
+        <v>2.38</v>
       </c>
       <c r="L39" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="M39" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>7.7</v>
+        <v>15</v>
       </c>
       <c r="O39" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="P39" t="n">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="R39" t="n">
-        <v>1.98</v>
+        <v>2.25</v>
       </c>
       <c r="S39" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="T39" t="n">
-        <v>2.82</v>
+        <v>3.4</v>
       </c>
       <c r="U39" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="V39" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="W39" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="X39" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA39" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AB39" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC39" t="n">
-        <v>7.7</v>
+        <v>15</v>
       </c>
       <c r="AD39" t="n">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="AE39" t="n">
         <v>12</v>
       </c>
       <c r="AF39" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AG39" t="n">
-        <v>300</v>
+        <v>126</v>
       </c>
       <c r="AH39" t="n">
-        <v>10.25</v>
+        <v>13</v>
       </c>
       <c r="AI39" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AJ39" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK39" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AL39" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AM39" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AN39" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="AO39" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AP39" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AQ39" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AR39" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AS39" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="AT39" t="n">
-        <v>2.82</v>
+        <v>3.4</v>
       </c>
       <c r="AU39" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AV39" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AW39" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="AX39" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AY39" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AZ39" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA39" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="BB39" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="BC39" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="BD39" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>hQuwsoyR</t>
+          <t>zTHDH9jI</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -7654,160 +7654,160 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Etoile-Carouge</t>
+          <t>Bellinzona</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vaduz</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.02</v>
+        <v>2.25</v>
       </c>
       <c r="H40" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="I40" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>2.55</v>
+        <v>2.77</v>
       </c>
       <c r="K40" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L40" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="M40" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="O40" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="P40" t="n">
-        <v>4.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.52</v>
+        <v>1.75</v>
       </c>
       <c r="R40" t="n">
-        <v>2.37</v>
+        <v>2</v>
       </c>
       <c r="S40" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="T40" t="n">
-        <v>3.3</v>
+        <v>2.87</v>
       </c>
       <c r="U40" t="n">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="V40" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="W40" t="n">
-        <v>10.75</v>
+        <v>9.5</v>
       </c>
       <c r="X40" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE40" t="n">
         <v>12</v>
       </c>
-      <c r="Y40" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>11.25</v>
-      </c>
       <c r="AF40" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AG40" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="AH40" t="n">
-        <v>15</v>
+        <v>10.25</v>
       </c>
       <c r="AI40" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="AJ40" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AK40" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AL40" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM40" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AN40" t="n">
         <v>4.3</v>
       </c>
       <c r="AO40" t="n">
-        <v>10.25</v>
+        <v>11.5</v>
       </c>
       <c r="AP40" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AQ40" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AR40" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AS40" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AT40" t="n">
-        <v>3.3</v>
+        <v>2.87</v>
       </c>
       <c r="AU40" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AV40" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AW40" t="n">
-        <v>500</v>
+        <v>51</v>
       </c>
       <c r="AX40" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="AY40" t="n">
         <v>16.5</v>
       </c>
       <c r="AZ40" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="BA40" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BB40" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="BC40" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="BD40" t="n">
         <v>51</v>
@@ -7816,7 +7816,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>xSA2kAxp</t>
+          <t>hQuwsoyR</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -7826,170 +7826,170 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>WALES - CYMRU PREMIER</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Etoile-Carouge</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Vaduz</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="H41" t="n">
         <v>3.7</v>
       </c>
       <c r="I41" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="J41" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K41" t="n">
         <v>2.3</v>
       </c>
-      <c r="K41" t="n">
-        <v>2.27</v>
-      </c>
       <c r="L41" t="n">
-        <v>4.25</v>
+        <v>3.85</v>
       </c>
       <c r="M41" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="O41" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="P41" t="n">
-        <v>3.7</v>
+        <v>4.35</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="R41" t="n">
-        <v>2.05</v>
+        <v>2.32</v>
       </c>
       <c r="S41" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="T41" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="U41" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="V41" t="n">
-        <v>2.05</v>
+        <v>2.42</v>
       </c>
       <c r="W41" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X41" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y41" t="n">
         <v>8.25</v>
       </c>
       <c r="Z41" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AD41" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AE41" t="n">
-        <v>14.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF41" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AG41" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AH41" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK41" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL41" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="AM41" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="AN41" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="AO41" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AQ41" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AR41" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS41" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>500</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>90</v>
+      </c>
+      <c r="BC41" t="n">
         <v>200</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AV41" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW41" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX41" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AY41" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ41" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA41" t="n">
-        <v>110</v>
-      </c>
-      <c r="BB41" t="n">
-        <v>150</v>
-      </c>
-      <c r="BC41" t="n">
-        <v>300</v>
       </c>
       <c r="BD41" t="n">
         <v>51</v>
@@ -7998,7 +7998,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Yg4Bml7d</t>
+          <t>xSA2kAxp</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -8018,160 +8018,160 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Connahs Q.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Barry</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L42" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N42" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q42" t="n">
         <v>1.72</v>
       </c>
-      <c r="H42" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="K42" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L42" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N42" t="n">
-        <v>7</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P42" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.98</v>
-      </c>
       <c r="R42" t="n">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="S42" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T42" t="n">
-        <v>2.72</v>
+        <v>3.05</v>
       </c>
       <c r="U42" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="V42" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="W42" t="n">
-        <v>6.5</v>
+        <v>8.25</v>
       </c>
       <c r="X42" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="Y42" t="n">
         <v>8.25</v>
       </c>
       <c r="Z42" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA42" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB42" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AC42" t="n">
-        <v>7</v>
+        <v>8.25</v>
       </c>
       <c r="AD42" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF42" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AG42" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="AH42" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AI42" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AJ42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK42" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AL42" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AM42" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AN42" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="AO42" t="n">
         <v>8.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AQ42" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR42" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV42" t="n">
         <v>60</v>
       </c>
-      <c r="AS42" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>70</v>
-      </c>
       <c r="AW42" t="n">
         <v>51</v>
       </c>
       <c r="AX42" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="AY42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ42" t="n">
         <v>26</v>
       </c>
-      <c r="AZ42" t="n">
-        <v>32</v>
-      </c>
       <c r="BA42" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="BB42" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="BC42" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="BD42" t="n">
         <v>51</v>
@@ -8180,7 +8180,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>W0Mc9VTF</t>
+          <t>Yg4Bml7d</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8200,160 +8200,160 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.16</v>
+        <v>1.72</v>
       </c>
       <c r="H43" t="n">
-        <v>5.8</v>
+        <v>3.4</v>
       </c>
       <c r="I43" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N43" t="n">
+        <v>7</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W43" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X43" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ43" t="n">
         <v>15</v>
       </c>
-      <c r="J43" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="K43" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="L43" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N43" t="n">
-        <v>9</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P43" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R43" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S43" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T43" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="U43" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W43" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="X43" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>35</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>200</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>37</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>55</v>
-      </c>
       <c r="AK43" t="n">
-        <v>800</v>
+        <v>80</v>
       </c>
       <c r="AL43" t="n">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="AM43" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="AN43" t="n">
-        <v>2.92</v>
+        <v>3.55</v>
       </c>
       <c r="AO43" t="n">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ43" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AR43" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AS43" t="n">
         <v>250</v>
       </c>
       <c r="AT43" t="n">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="AU43" t="n">
-        <v>10.75</v>
+        <v>7.4</v>
       </c>
       <c r="AV43" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AW43" t="n">
         <v>51</v>
       </c>
       <c r="AX43" t="n">
-        <v>14</v>
+        <v>6.3</v>
       </c>
       <c r="AY43" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="AZ43" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="BA43" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="BB43" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="BC43" t="n">
-        <v>51</v>
+        <v>400</v>
       </c>
       <c r="BD43" t="n">
         <v>51</v>
@@ -8362,182 +8362,364 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>W0Mc9VTF</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>24/09/2024</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>TNS</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Bala</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H44" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I44" t="n">
+        <v>19</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="L44" t="n">
+        <v>13</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N44" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="T44" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W44" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="X44" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>35</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>175</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>250</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>800</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>400</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>110</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>120</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>80</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>500</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>vRP579bS</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>24/09/2024</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>WALES - CYMRU PREMIER</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>Aberystwyth</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Cardiff Metropolitan</t>
         </is>
       </c>
-      <c r="G44" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="H44" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J44" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K44" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N44" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P44" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T44" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="U44" t="n">
+      <c r="G45" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="J45" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L45" t="n">
         <v>1.98</v>
       </c>
-      <c r="V44" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W44" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="X44" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y44" t="n">
+      <c r="M45" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N45" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W45" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="X45" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>70</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE45" t="n">
         <v>19.5</v>
       </c>
-      <c r="Z44" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>70</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF44" t="n">
+      <c r="AF45" t="n">
         <v>100</v>
       </c>
-      <c r="AG44" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AI44" t="n">
+      <c r="AG45" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>45</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>300</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>300</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AY45" t="n">
         <v>6.7</v>
       </c>
-      <c r="AJ44" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>37</v>
-      </c>
-      <c r="AP44" t="n">
-        <v>40</v>
-      </c>
-      <c r="AQ44" t="n">
+      <c r="AZ45" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>20</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>55</v>
+      </c>
+      <c r="BC45" t="n">
         <v>250</v>
       </c>
-      <c r="AR44" t="n">
-        <v>300</v>
-      </c>
-      <c r="AS44" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT44" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AU44" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AV44" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW44" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX44" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AY44" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AZ44" t="n">
-        <v>18</v>
-      </c>
-      <c r="BA44" t="n">
-        <v>22</v>
-      </c>
-      <c r="BB44" t="n">
-        <v>55</v>
-      </c>
-      <c r="BC44" t="n">
-        <v>250</v>
-      </c>
-      <c r="BD44" t="n">
+      <c r="BD45" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-09-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-24.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H3" t="n">
         <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J3" t="n">
         <v>2.2</v>
@@ -944,7 +944,7 @@
         <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -959,10 +959,10 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="R3" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -986,7 +986,7 @@
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA3" t="n">
         <v>13</v>
@@ -1019,19 +1019,19 @@
         <v>17</v>
       </c>
       <c r="AK3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL3" t="n">
         <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
         <v>3.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
@@ -1049,13 +1049,13 @@
         <v>2.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX3" t="n">
         <v>7</v>
@@ -1064,7 +1064,7 @@
         <v>29</v>
       </c>
       <c r="AZ3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA3" t="n">
         <v>101</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="H6" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I6" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="J6" t="n">
         <v>3.1</v>
@@ -1490,7 +1490,7 @@
         <v>2.3</v>
       </c>
       <c r="L6" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1499,16 +1499,16 @@
         <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S6" t="n">
         <v>1.29</v>
@@ -1520,19 +1520,19 @@
         <v>1.47</v>
       </c>
       <c r="V6" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="W6" t="n">
         <v>12.5</v>
       </c>
       <c r="X6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA6" t="n">
         <v>19</v>
@@ -1544,10 +1544,10 @@
         <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AF6" t="n">
         <v>35</v>
@@ -1556,7 +1556,7 @@
         <v>200</v>
       </c>
       <c r="AH6" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AI6" t="n">
         <v>15</v>
@@ -1568,34 +1568,34 @@
         <v>27</v>
       </c>
       <c r="AL6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AM6" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AN6" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AO6" t="n">
         <v>13.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ6" t="n">
         <v>55</v>
       </c>
       <c r="AR6" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS6" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AT6" t="n">
         <v>3.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AV6" t="n">
         <v>40</v>
@@ -1607,7 +1607,7 @@
         <v>4.7</v>
       </c>
       <c r="AY6" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AZ6" t="n">
         <v>16</v>
@@ -1657,40 +1657,40 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H7" t="n">
         <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K7" t="n">
         <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1699,16 +1699,16 @@
         <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1723,7 +1723,7 @@
         <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
         <v>7</v>
@@ -1741,7 +1741,7 @@
         <v>9.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="n">
         <v>13</v>
@@ -1750,7 +1750,7 @@
         <v>41</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
@@ -1789,13 +1789,13 @@
         <v>5.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="n">
         <v>101</v>
@@ -1839,16 +1839,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H8" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K8" t="n">
         <v>2.3</v>
@@ -1881,13 +1881,13 @@
         <v>3.25</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V8" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
         <v>8.5</v>
@@ -1905,7 +1905,7 @@
         <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD8" t="n">
         <v>7.5</v>
@@ -1920,10 +1920,10 @@
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ8" t="n">
         <v>15</v>
@@ -1932,7 +1932,7 @@
         <v>51</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="n">
         <v>41</v>
@@ -2021,16 +2021,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J9" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K9" t="n">
         <v>2.2</v>
@@ -2045,16 +2045,16 @@
         <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R9" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2063,16 +2063,16 @@
         <v>2.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
         <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
@@ -2087,7 +2087,7 @@
         <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD9" t="n">
         <v>7</v>
@@ -2099,13 +2099,13 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ9" t="n">
         <v>15</v>
@@ -2120,10 +2120,10 @@
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
         <v>21</v>
@@ -2150,19 +2150,19 @@
         <v>51</v>
       </c>
       <c r="AX9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
         <v>34</v>
       </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC9" t="n">
         <v>251</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
         <v>2.88</v>
       </c>
       <c r="I10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K10" t="n">
         <v>1.8</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.67</v>
@@ -2233,10 +2233,10 @@
         <v>2.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S10" t="n">
         <v>1.67</v>
@@ -2254,13 +2254,13 @@
         <v>4.75</v>
       </c>
       <c r="X10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
         <v>23</v>
@@ -2287,7 +2287,7 @@
         <v>8</v>
       </c>
       <c r="AI10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
         <v>17</v>
@@ -2296,7 +2296,7 @@
         <v>51</v>
       </c>
       <c r="AL10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM10" t="n">
         <v>67</v>
@@ -2341,7 +2341,7 @@
         <v>41</v>
       </c>
       <c r="BA10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB10" t="n">
         <v>201</v>
@@ -2409,10 +2409,10 @@
         <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P11" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q11" t="n">
         <v>2.88</v>
@@ -2567,34 +2567,34 @@
         </is>
       </c>
       <c r="G12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H12" t="n">
         <v>3.1</v>
       </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
       <c r="I12" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="K12" t="n">
         <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q12" t="n">
         <v>2.35</v>
@@ -2615,25 +2615,25 @@
         <v>1.73</v>
       </c>
       <c r="W12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA12" t="n">
         <v>34</v>
       </c>
-      <c r="AA12" t="n">
-        <v>29</v>
-      </c>
       <c r="AB12" t="n">
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD12" t="n">
         <v>6</v>
@@ -2648,16 +2648,16 @@
         <v>900</v>
       </c>
       <c r="AH12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
         <v>21</v>
@@ -2666,22 +2666,22 @@
         <v>34</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR12" t="n">
         <v>101</v>
       </c>
       <c r="AS12" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT12" t="n">
         <v>2.5</v>
@@ -2696,22 +2696,22 @@
         <v>81</v>
       </c>
       <c r="AX12" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AY12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ12" t="n">
         <v>26</v>
       </c>
       <c r="BA12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC12" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -2931,40 +2931,40 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="H14" t="n">
         <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="J14" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>11</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P14" t="n">
         <v>3.5</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N14" t="n">
-        <v>10</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.4</v>
-      </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R14" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S14" t="n">
         <v>1.4</v>
@@ -2985,13 +2985,13 @@
         <v>12</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z14" t="n">
         <v>23</v>
       </c>
       <c r="AA14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB14" t="n">
         <v>29</v>
@@ -3003,10 +3003,10 @@
         <v>6.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG14" t="n">
         <v>201</v>
@@ -3015,16 +3015,16 @@
         <v>9</v>
       </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM14" t="n">
         <v>29</v>
@@ -3033,7 +3033,7 @@
         <v>4.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP14" t="n">
         <v>23</v>
@@ -3051,7 +3051,7 @@
         <v>2.75</v>
       </c>
       <c r="AU14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV14" t="n">
         <v>51</v>
@@ -3060,10 +3060,10 @@
         <v>126</v>
       </c>
       <c r="AX14" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ14" t="n">
         <v>23</v>
@@ -3143,10 +3143,10 @@
         <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R15" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S15" t="n">
         <v>1.44</v>
@@ -3316,7 +3316,7 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
         <v>1.22</v>
@@ -3659,28 +3659,28 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J18" t="n">
         <v>3.1</v>
       </c>
       <c r="K18" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L18" t="n">
         <v>3.1</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O18" t="n">
         <v>1.2</v>
@@ -3689,10 +3689,10 @@
         <v>4.33</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R18" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S18" t="n">
         <v>1.33</v>
@@ -3701,10 +3701,10 @@
         <v>3.25</v>
       </c>
       <c r="U18" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V18" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W18" t="n">
         <v>11</v>
@@ -3725,16 +3725,16 @@
         <v>23</v>
       </c>
       <c r="AC18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG18" t="n">
         <v>126</v>
@@ -3785,7 +3785,7 @@
         <v>41</v>
       </c>
       <c r="AW18" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AX18" t="n">
         <v>4.75</v>
@@ -3859,10 +3859,10 @@
         <v>3.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O19" t="n">
         <v>1.36</v>
@@ -3871,16 +3871,16 @@
         <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S19" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T19" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U19" t="n">
         <v>1.91</v>
@@ -3895,7 +3895,7 @@
         <v>11</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z19" t="n">
         <v>23</v>
@@ -3949,7 +3949,7 @@
         <v>26</v>
       </c>
       <c r="AQ19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR19" t="n">
         <v>67</v>
@@ -3958,10 +3958,10 @@
         <v>201</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU19" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV19" t="n">
         <v>51</v>
@@ -4387,73 +4387,73 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I22" t="n">
         <v>2.8</v>
       </c>
       <c r="J22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K22" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L22" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O22" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P22" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="R22" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="S22" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T22" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U22" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V22" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W22" t="n">
         <v>6.5</v>
       </c>
       <c r="X22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB22" t="n">
         <v>41</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD22" t="n">
         <v>6</v>
@@ -4462,19 +4462,19 @@
         <v>19</v>
       </c>
       <c r="AF22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG22" t="n">
         <v>201</v>
       </c>
       <c r="AH22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI22" t="n">
         <v>12</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK22" t="n">
         <v>29</v>
@@ -4492,7 +4492,7 @@
         <v>17</v>
       </c>
       <c r="AP22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ22" t="n">
         <v>51</v>
@@ -4501,22 +4501,22 @@
         <v>101</v>
       </c>
       <c r="AS22" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW22" t="n">
         <v>81</v>
       </c>
       <c r="AX22" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY22" t="n">
         <v>17</v>
@@ -4525,13 +4525,13 @@
         <v>34</v>
       </c>
       <c r="BA22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB22" t="n">
         <v>101</v>
       </c>
       <c r="BC22" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD22" t="n">
         <v>81</v>
@@ -4569,28 +4569,28 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L23" t="n">
         <v>4.75</v>
       </c>
-      <c r="J23" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L23" t="n">
-        <v>5</v>
-      </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O23" t="n">
         <v>1.29</v>
@@ -4611,22 +4611,22 @@
         <v>3</v>
       </c>
       <c r="U23" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V23" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y23" t="n">
         <v>8.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA23" t="n">
         <v>15</v>
@@ -4662,7 +4662,7 @@
         <v>51</v>
       </c>
       <c r="AL23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM23" t="n">
         <v>41</v>
@@ -4671,7 +4671,7 @@
         <v>3.75</v>
       </c>
       <c r="AO23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP23" t="n">
         <v>21</v>
@@ -4698,13 +4698,13 @@
         <v>81</v>
       </c>
       <c r="AX23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AY23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA23" t="n">
         <v>81</v>
@@ -4754,10 +4754,10 @@
         <v>1.95</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J24" t="n">
         <v>2.6</v>
@@ -4769,22 +4769,22 @@
         <v>4.33</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P24" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R24" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S24" t="n">
         <v>1.4</v>
@@ -4793,16 +4793,16 @@
         <v>2.75</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V24" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W24" t="n">
         <v>6.5</v>
       </c>
       <c r="X24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y24" t="n">
         <v>9</v>
@@ -4814,19 +4814,19 @@
         <v>17</v>
       </c>
       <c r="AB24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF24" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG24" t="n">
         <v>351</v>
@@ -4933,76 +4933,76 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="I25" t="n">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="J25" t="n">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="K25" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L25" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="R25" t="n">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="S25" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T25" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V25" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W25" t="n">
         <v>6.5</v>
       </c>
       <c r="X25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y25" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y25" t="n">
-        <v>9</v>
-      </c>
       <c r="Z25" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD25" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
         <v>17</v>
@@ -5011,73 +5011,73 @@
         <v>51</v>
       </c>
       <c r="AG25" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ25" t="n">
         <v>15</v>
       </c>
       <c r="AK25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM25" t="n">
         <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS25" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU25" t="n">
         <v>8.5</v>
       </c>
       <c r="AV25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW25" t="n">
         <v>81</v>
       </c>
       <c r="AX25" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ25" t="n">
         <v>34</v>
       </c>
       <c r="BA25" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB25" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC25" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD25" t="n">
         <v>81</v>
@@ -5115,13 +5115,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H26" t="n">
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J26" t="n">
         <v>3.75</v>
@@ -5130,7 +5130,7 @@
         <v>1.95</v>
       </c>
       <c r="L26" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M26" t="n">
         <v>1.1</v>
@@ -5175,7 +5175,7 @@
         <v>29</v>
       </c>
       <c r="AA26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB26" t="n">
         <v>41</v>
@@ -5205,7 +5205,7 @@
         <v>11</v>
       </c>
       <c r="AK26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL26" t="n">
         <v>23</v>
@@ -5244,7 +5244,7 @@
         <v>81</v>
       </c>
       <c r="AX26" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AY26" t="n">
         <v>15</v>
@@ -5297,22 +5297,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H27" t="n">
         <v>4.5</v>
       </c>
       <c r="I27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J27" t="n">
         <v>1.91</v>
       </c>
       <c r="K27" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L27" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
@@ -5321,82 +5321,82 @@
         <v>11</v>
       </c>
       <c r="O27" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P27" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="R27" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="S27" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T27" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U27" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="W27" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X27" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA27" t="n">
         <v>13</v>
       </c>
       <c r="AB27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD27" t="n">
         <v>9</v>
       </c>
       <c r="AE27" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AF27" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG27" t="n">
         <v>1250</v>
       </c>
       <c r="AH27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI27" t="n">
         <v>41</v>
       </c>
       <c r="AJ27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK27" t="n">
         <v>101</v>
       </c>
       <c r="AL27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AO27" t="n">
         <v>6.5</v>
@@ -5405,22 +5405,22 @@
         <v>21</v>
       </c>
       <c r="AQ27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS27" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV27" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW27" t="n">
         <v>81</v>
@@ -5432,13 +5432,13 @@
         <v>41</v>
       </c>
       <c r="AZ27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA27" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB27" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC27" t="n">
         <v>501</v>
@@ -5488,7 +5488,7 @@
         <v>2.88</v>
       </c>
       <c r="J28" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K28" t="n">
         <v>2.05</v>
@@ -5503,16 +5503,16 @@
         <v>8</v>
       </c>
       <c r="O28" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P28" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S28" t="n">
         <v>1.5</v>
@@ -5530,7 +5530,7 @@
         <v>7.5</v>
       </c>
       <c r="X28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y28" t="n">
         <v>10</v>
@@ -5560,7 +5560,7 @@
         <v>301</v>
       </c>
       <c r="AH28" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI28" t="n">
         <v>13</v>
@@ -5590,7 +5590,7 @@
         <v>51</v>
       </c>
       <c r="AR28" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS28" t="n">
         <v>201</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H29" t="n">
         <v>3.7</v>
@@ -5670,43 +5670,43 @@
         <v>1.95</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K29" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L29" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M29" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O29" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R29" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S29" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T29" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U29" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V29" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W29" t="n">
         <v>13</v>
@@ -5715,7 +5715,7 @@
         <v>21</v>
       </c>
       <c r="Y29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z29" t="n">
         <v>41</v>
@@ -5727,31 +5727,31 @@
         <v>29</v>
       </c>
       <c r="AC29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF29" t="n">
         <v>41</v>
       </c>
       <c r="AG29" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>9</v>
       </c>
-      <c r="AI29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AK29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL29" t="n">
         <v>15</v>
@@ -5763,7 +5763,7 @@
         <v>5.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP29" t="n">
         <v>23</v>
@@ -5775,13 +5775,13 @@
         <v>67</v>
       </c>
       <c r="AS29" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT29" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV29" t="n">
         <v>41</v>
@@ -5796,13 +5796,13 @@
         <v>10</v>
       </c>
       <c r="AZ29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA29" t="n">
         <v>34</v>
       </c>
       <c r="BB29" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BC29" t="n">
         <v>101</v>
@@ -5861,10 +5861,10 @@
         <v>3.75</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O30" t="n">
         <v>1.33</v>
@@ -5873,10 +5873,10 @@
         <v>3.25</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R30" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S30" t="n">
         <v>1.4</v>
@@ -6025,22 +6025,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H31" t="n">
         <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="J31" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K31" t="n">
         <v>2.3</v>
       </c>
       <c r="L31" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
@@ -6073,19 +6073,19 @@
         <v>2.25</v>
       </c>
       <c r="W31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB31" t="n">
         <v>23</v>
@@ -6106,31 +6106,31 @@
         <v>126</v>
       </c>
       <c r="AH31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI31" t="n">
         <v>15</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM31" t="n">
         <v>26</v>
       </c>
-      <c r="AL31" t="n">
+      <c r="AN31" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP31" t="n">
         <v>19</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>21</v>
       </c>
       <c r="AQ31" t="n">
         <v>41</v>
@@ -6154,10 +6154,10 @@
         <v>81</v>
       </c>
       <c r="AX31" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ31" t="n">
         <v>21</v>
@@ -6207,28 +6207,28 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J32" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K32" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L32" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M32" t="n">
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O32" t="n">
         <v>1.22</v>
@@ -6237,16 +6237,16 @@
         <v>4</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R32" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S32" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T32" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U32" t="n">
         <v>1.73</v>
@@ -6267,7 +6267,7 @@
         <v>15</v>
       </c>
       <c r="AA32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB32" t="n">
         <v>23</v>
@@ -6291,10 +6291,10 @@
         <v>13</v>
       </c>
       <c r="AI32" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK32" t="n">
         <v>41</v>
@@ -6309,7 +6309,7 @@
         <v>4</v>
       </c>
       <c r="AO32" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP32" t="n">
         <v>19</v>
@@ -6324,7 +6324,7 @@
         <v>126</v>
       </c>
       <c r="AT32" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU32" t="n">
         <v>8</v>
@@ -6342,7 +6342,7 @@
         <v>21</v>
       </c>
       <c r="AZ32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA32" t="n">
         <v>67</v>
@@ -6389,22 +6389,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H33" t="n">
         <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K33" t="n">
         <v>2.3</v>
       </c>
       <c r="L33" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
@@ -6440,10 +6440,10 @@
         <v>11</v>
       </c>
       <c r="X33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z33" t="n">
         <v>23</v>
@@ -6473,25 +6473,25 @@
         <v>12</v>
       </c>
       <c r="AI33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK33" t="n">
         <v>29</v>
       </c>
       <c r="AL33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN33" t="n">
         <v>4.75</v>
       </c>
       <c r="AO33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP33" t="n">
         <v>19</v>
@@ -6774,7 +6774,7 @@
         <v>1.03</v>
       </c>
       <c r="N35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O35" t="n">
         <v>1.18</v>
@@ -6783,10 +6783,10 @@
         <v>4.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R35" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S35" t="n">
         <v>1.3</v>
@@ -7299,46 +7299,46 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="H38" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I38" t="n">
         <v>2.42</v>
       </c>
       <c r="J38" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K38" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L38" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="M38" t="n">
         <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="O38" t="n">
         <v>1.31</v>
       </c>
       <c r="P38" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R38" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S38" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="T38" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="U38" t="n">
         <v>1.7</v>
@@ -7350,13 +7350,13 @@
         <v>9.25</v>
       </c>
       <c r="X38" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y38" t="n">
         <v>10.75</v>
       </c>
       <c r="Z38" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AA38" t="n">
         <v>26</v>
@@ -7365,22 +7365,22 @@
         <v>32</v>
       </c>
       <c r="AC38" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE38" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF38" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG38" t="n">
         <v>500</v>
       </c>
       <c r="AH38" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AI38" t="n">
         <v>13</v>
@@ -7392,16 +7392,16 @@
         <v>28</v>
       </c>
       <c r="AL38" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM38" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AN38" t="n">
         <v>4.8</v>
       </c>
       <c r="AO38" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AP38" t="n">
         <v>23</v>
@@ -7416,7 +7416,7 @@
         <v>300</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="AU38" t="n">
         <v>6.9</v>
@@ -7431,16 +7431,16 @@
         <v>4.35</v>
       </c>
       <c r="AY38" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AZ38" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA38" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB38" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BC38" t="n">
         <v>300</v>
@@ -7490,10 +7490,10 @@
         <v>2.25</v>
       </c>
       <c r="J39" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K39" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L39" t="n">
         <v>2.88</v>
@@ -7505,10 +7505,10 @@
         <v>13</v>
       </c>
       <c r="O39" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P39" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q39" t="n">
         <v>1.7</v>
@@ -7529,10 +7529,10 @@
         <v>2.25</v>
       </c>
       <c r="W39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X39" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y39" t="n">
         <v>11</v>
@@ -7559,7 +7559,7 @@
         <v>41</v>
       </c>
       <c r="AG39" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH39" t="n">
         <v>10</v>
@@ -7607,16 +7607,16 @@
         <v>41</v>
       </c>
       <c r="AW39" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AX39" t="n">
         <v>4.5</v>
       </c>
       <c r="AY39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA39" t="n">
         <v>41</v>
@@ -7628,7 +7628,7 @@
         <v>126</v>
       </c>
       <c r="BD39" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40">
@@ -7681,22 +7681,22 @@
         <v>3.75</v>
       </c>
       <c r="M40" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N40" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O40" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P40" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R40" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S40" t="n">
         <v>1.36</v>
@@ -7845,22 +7845,22 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="H41" t="n">
         <v>3.5</v>
       </c>
       <c r="I41" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K41" t="n">
         <v>2.25</v>
       </c>
       <c r="L41" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="M41" t="n">
         <v>1.04</v>
@@ -7893,22 +7893,22 @@
         <v>2.2</v>
       </c>
       <c r="W41" t="n">
+        <v>11</v>
+      </c>
+      <c r="X41" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y41" t="n">
         <v>10</v>
       </c>
-      <c r="X41" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z41" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AA41" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB41" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC41" t="n">
         <v>13</v>
@@ -7917,7 +7917,7 @@
         <v>7</v>
       </c>
       <c r="AE41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF41" t="n">
         <v>41</v>
@@ -7926,34 +7926,34 @@
         <v>151</v>
       </c>
       <c r="AH41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO41" t="n">
         <v>15</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>13</v>
       </c>
       <c r="AP41" t="n">
         <v>21</v>
       </c>
       <c r="AQ41" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR41" t="n">
         <v>51</v>
@@ -7974,10 +7974,10 @@
         <v>451</v>
       </c>
       <c r="AX41" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AY41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ41" t="n">
         <v>21</v>
@@ -8027,28 +8027,28 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="H42" t="n">
         <v>3.5</v>
       </c>
       <c r="I42" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J42" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
         <v>2.25</v>
       </c>
       <c r="L42" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M42" t="n">
         <v>1.04</v>
       </c>
       <c r="N42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O42" t="n">
         <v>1.22</v>
@@ -8078,25 +8078,25 @@
         <v>9.5</v>
       </c>
       <c r="X42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y42" t="n">
         <v>9.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA42" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB42" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC42" t="n">
         <v>12</v>
       </c>
       <c r="AD42" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE42" t="n">
         <v>13</v>
@@ -8108,13 +8108,13 @@
         <v>151</v>
       </c>
       <c r="AH42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI42" t="n">
         <v>15</v>
       </c>
       <c r="AJ42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK42" t="n">
         <v>29</v>
@@ -8123,13 +8123,13 @@
         <v>21</v>
       </c>
       <c r="AM42" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN42" t="n">
         <v>4.5</v>
       </c>
       <c r="AO42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP42" t="n">
         <v>21</v>
@@ -8162,7 +8162,7 @@
         <v>15</v>
       </c>
       <c r="AZ42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA42" t="n">
         <v>51</v>
@@ -8212,25 +8212,25 @@
         <v>2.25</v>
       </c>
       <c r="H43" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J43" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="K43" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L43" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M43" t="n">
         <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="O43" t="n">
         <v>1.25</v>
@@ -8248,13 +8248,13 @@
         <v>1.37</v>
       </c>
       <c r="T43" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="U43" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V43" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W43" t="n">
         <v>9.5</v>
@@ -8266,7 +8266,7 @@
         <v>8.75</v>
       </c>
       <c r="Z43" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA43" t="n">
         <v>16.5</v>
@@ -8275,13 +8275,13 @@
         <v>22</v>
       </c>
       <c r="AC43" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AD43" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE43" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AF43" t="n">
         <v>45</v>
@@ -8290,31 +8290,31 @@
         <v>300</v>
       </c>
       <c r="AH43" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AI43" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AJ43" t="n">
         <v>10.5</v>
       </c>
       <c r="AK43" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL43" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM43" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN43" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="AO43" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AP43" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ43" t="n">
         <v>45</v>
@@ -8323,13 +8323,13 @@
         <v>65</v>
       </c>
       <c r="AS43" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="AU43" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV43" t="n">
         <v>50</v>
@@ -8341,16 +8341,16 @@
         <v>5.1</v>
       </c>
       <c r="AY43" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AZ43" t="n">
         <v>22</v>
       </c>
       <c r="BA43" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB43" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BC43" t="n">
         <v>250</v>
@@ -8391,46 +8391,46 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H44" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I44" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="J44" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K44" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="L44" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="M44" t="n">
         <v>1.03</v>
       </c>
       <c r="N44" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="O44" t="n">
         <v>1.17</v>
       </c>
       <c r="P44" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R44" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="S44" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="T44" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="U44" t="n">
         <v>1.52</v>
@@ -8439,7 +8439,7 @@
         <v>2.37</v>
       </c>
       <c r="W44" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="X44" t="n">
         <v>10.5</v>
@@ -8448,19 +8448,19 @@
         <v>8.25</v>
       </c>
       <c r="Z44" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA44" t="n">
         <v>12.5</v>
       </c>
       <c r="AB44" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD44" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AE44" t="n">
         <v>12.5</v>
@@ -8472,34 +8472,34 @@
         <v>200</v>
       </c>
       <c r="AH44" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ44" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK44" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL44" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM44" t="n">
         <v>29</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>28</v>
       </c>
       <c r="AN44" t="n">
         <v>4</v>
       </c>
       <c r="AO44" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AQ44" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AR44" t="n">
         <v>45</v>
@@ -8508,7 +8508,7 @@
         <v>150</v>
       </c>
       <c r="AT44" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AU44" t="n">
         <v>6.6</v>
@@ -8520,13 +8520,13 @@
         <v>500</v>
       </c>
       <c r="AX44" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AY44" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ44" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA44" t="n">
         <v>90</v>
@@ -8940,19 +8940,19 @@
         <v>1.18</v>
       </c>
       <c r="H47" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I47" t="n">
         <v>14</v>
       </c>
       <c r="J47" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="K47" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="L47" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="M47" t="n">
         <v>1.03</v>
@@ -8961,40 +8961,40 @@
         <v>9</v>
       </c>
       <c r="O47" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P47" t="n">
         <v>4.25</v>
       </c>
       <c r="Q47" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T47" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V47" t="n">
         <v>1.55</v>
       </c>
-      <c r="R47" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S47" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T47" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U47" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="V47" t="n">
-        <v>1.53</v>
-      </c>
       <c r="W47" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X47" t="n">
         <v>5.6</v>
       </c>
       <c r="Y47" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Z47" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AA47" t="n">
         <v>11.25</v>
@@ -9006,7 +9006,7 @@
         <v>9</v>
       </c>
       <c r="AD47" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE47" t="n">
         <v>32</v>
@@ -9018,7 +9018,7 @@
         <v>201</v>
       </c>
       <c r="AH47" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI47" t="n">
         <v>150</v>
@@ -9027,10 +9027,10 @@
         <v>50</v>
       </c>
       <c r="AK47" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AL47" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AM47" t="n">
         <v>175</v>
@@ -9039,40 +9039,40 @@
         <v>2.92</v>
       </c>
       <c r="AO47" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="AP47" t="n">
         <v>17.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AR47" t="n">
         <v>40</v>
       </c>
       <c r="AS47" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT47" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AU47" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AV47" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AW47" t="n">
         <v>51</v>
       </c>
       <c r="AX47" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AY47" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AZ47" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BA47" t="n">
         <v>500</v>
@@ -9119,37 +9119,37 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="H48" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="I48" t="n">
         <v>1.42</v>
       </c>
       <c r="J48" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="K48" t="n">
         <v>2.27</v>
       </c>
       <c r="L48" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="M48" t="n">
         <v>1.05</v>
       </c>
       <c r="N48" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="O48" t="n">
         <v>1.26</v>
       </c>
       <c r="P48" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R48" t="n">
         <v>1.95</v>
@@ -9161,43 +9161,43 @@
         <v>2.85</v>
       </c>
       <c r="U48" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V48" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W48" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="X48" t="n">
         <v>45</v>
       </c>
       <c r="Y48" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z48" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AA48" t="n">
         <v>80</v>
       </c>
       <c r="AB48" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AC48" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AD48" t="n">
         <v>8.25</v>
       </c>
       <c r="AE48" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF48" t="n">
         <v>100</v>
       </c>
       <c r="AG48" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AH48" t="n">
         <v>6.5</v>
@@ -9215,7 +9215,7 @@
         <v>11.75</v>
       </c>
       <c r="AM48" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN48" t="n">
         <v>8</v>
@@ -9230,7 +9230,7 @@
         <v>300</v>
       </c>
       <c r="AR48" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AS48" t="n">
         <v>500</v>
@@ -9239,10 +9239,10 @@
         <v>2.85</v>
       </c>
       <c r="AU48" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AV48" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW48" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-24.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
         <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
         <v>2.4</v>
@@ -765,28 +765,28 @@
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U2" t="n">
         <v>1.8</v>
@@ -795,7 +795,7 @@
         <v>1.95</v>
       </c>
       <c r="W2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
         <v>7.5</v>
@@ -813,7 +813,7 @@
         <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD2" t="n">
         <v>8.5</v>
@@ -825,7 +825,7 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH2" t="n">
         <v>17</v>
@@ -846,10 +846,10 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>
@@ -861,13 +861,13 @@
         <v>41</v>
       </c>
       <c r="AS2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
         <v>5.75</v>
@@ -953,16 +953,16 @@
         <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="R3" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -971,10 +971,10 @@
         <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W3" t="n">
         <v>6.5</v>
@@ -995,7 +995,7 @@
         <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD3" t="n">
         <v>7.5</v>
@@ -1004,10 +1004,10 @@
         <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH3" t="n">
         <v>13</v>
@@ -1031,7 +1031,7 @@
         <v>3.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
         <v>151</v>
@@ -1070,7 +1070,7 @@
         <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC3" t="n">
         <v>301</v>
@@ -1117,16 +1117,16 @@
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J4" t="n">
         <v>2.88</v>
       </c>
       <c r="K4" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
@@ -1141,10 +1141,10 @@
         <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
         <v>1.57</v>
@@ -1153,16 +1153,16 @@
         <v>2.25</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y4" t="n">
         <v>9.5</v>
@@ -1177,13 +1177,13 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>81</v>
@@ -1216,7 +1216,7 @@
         <v>12</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ4" t="n">
         <v>41</v>
@@ -1225,13 +1225,13 @@
         <v>81</v>
       </c>
       <c r="AS4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT4" t="n">
         <v>2.25</v>
       </c>
       <c r="AU4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
         <v>81</v>
@@ -1240,22 +1240,22 @@
         <v>126</v>
       </c>
       <c r="AX4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
         <v>41</v>
       </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="BD4" t="n">
         <v>126</v>
@@ -1350,7 +1350,7 @@
         <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA5" t="n">
         <v>11</v>
@@ -1371,7 +1371,7 @@
         <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH5" t="n">
         <v>29</v>
@@ -1416,7 +1416,7 @@
         <v>10</v>
       </c>
       <c r="AV5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
         <v>126</v>
@@ -1434,7 +1434,7 @@
         <v>251</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC5" t="n">
         <v>351</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="H6" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I6" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>2.3</v>
       </c>
       <c r="L6" t="n">
-        <v>2.82</v>
+        <v>2.95</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1508,94 +1508,94 @@
         <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="S6" t="n">
         <v>1.29</v>
       </c>
       <c r="T6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="U6" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="V6" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="W6" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="X6" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Z6" t="n">
         <v>30</v>
       </c>
       <c r="AA6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AC6" t="n">
         <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AE6" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AF6" t="n">
         <v>35</v>
       </c>
       <c r="AG6" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AH6" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AI6" t="n">
         <v>15</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL6" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AM6" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AN6" t="n">
         <v>4.9</v>
       </c>
       <c r="AO6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AQ6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR6" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AS6" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AV6" t="n">
         <v>40</v>
@@ -1604,19 +1604,19 @@
         <v>500</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AY6" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BA6" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BB6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BC6" t="n">
         <v>150</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I8" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1869,10 +1869,10 @@
         <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R8" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S8" t="n">
         <v>1.33</v>
@@ -1881,25 +1881,25 @@
         <v>3.25</v>
       </c>
       <c r="U8" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X8" t="n">
         <v>8</v>
-      </c>
-      <c r="X8" t="n">
-        <v>8.5</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB8" t="n">
         <v>23</v>
@@ -1908,10 +1908,10 @@
         <v>13</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
@@ -1923,10 +1923,10 @@
         <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="n">
         <v>51</v>
@@ -1938,16 +1938,16 @@
         <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR8" t="n">
         <v>41</v>
@@ -1968,16 +1968,16 @@
         <v>51</v>
       </c>
       <c r="AX8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
         <v>101</v>
@@ -2021,16 +2021,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I9" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J9" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K9" t="n">
         <v>2.2</v>
@@ -2039,22 +2039,22 @@
         <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R9" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2063,16 +2063,16 @@
         <v>2.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
@@ -2087,7 +2087,7 @@
         <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
         <v>7</v>
@@ -2099,7 +2099,7 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH9" t="n">
         <v>12</v>
@@ -2120,7 +2120,7 @@
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO9" t="n">
         <v>9</v>
@@ -2159,10 +2159,10 @@
         <v>34</v>
       </c>
       <c r="BA9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB9" t="n">
         <v>101</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>126</v>
       </c>
       <c r="BC9" t="n">
         <v>251</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H10" t="n">
         <v>2.88</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J10" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
         <v>1.14</v>
@@ -2245,28 +2245,28 @@
         <v>2.1</v>
       </c>
       <c r="U10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V10" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W10" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
         <v>23</v>
       </c>
       <c r="AB10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="n">
         <v>5</v>
@@ -2287,7 +2287,7 @@
         <v>8</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="n">
         <v>17</v>
@@ -2296,7 +2296,7 @@
         <v>51</v>
       </c>
       <c r="AL10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM10" t="n">
         <v>67</v>
@@ -2314,7 +2314,7 @@
         <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS10" t="n">
         <v>500</v>
@@ -2323,7 +2323,7 @@
         <v>2.1</v>
       </c>
       <c r="AU10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV10" t="n">
         <v>101</v>
@@ -2341,10 +2341,10 @@
         <v>41</v>
       </c>
       <c r="BA10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="n">
         <v>501</v>
@@ -2388,61 +2388,61 @@
         <v>2.15</v>
       </c>
       <c r="H11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J11" t="n">
         <v>3</v>
       </c>
-      <c r="I11" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K11" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L11" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.57</v>
       </c>
-      <c r="P11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.53</v>
-      </c>
       <c r="W11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X11" t="n">
         <v>8.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
         <v>23</v>
@@ -2451,16 +2451,16 @@
         <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD11" t="n">
         <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG11" t="n">
         <v>201</v>
@@ -2490,22 +2490,22 @@
         <v>13</v>
       </c>
       <c r="AP11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
         <v>81</v>
       </c>
       <c r="AS11" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AU11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV11" t="n">
         <v>81</v>
@@ -2526,7 +2526,7 @@
         <v>81</v>
       </c>
       <c r="BB11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC11" t="n">
         <v>301</v>
@@ -2567,13 +2567,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H12" t="n">
         <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J12" t="n">
         <v>4.33</v>
@@ -2582,7 +2582,7 @@
         <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
@@ -2597,10 +2597,10 @@
         <v>2.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R12" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S12" t="n">
         <v>1.5</v>
@@ -2651,16 +2651,16 @@
         <v>6.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ12" t="n">
         <v>9.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM12" t="n">
         <v>34</v>
@@ -2699,7 +2699,7 @@
         <v>4</v>
       </c>
       <c r="AY12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ12" t="n">
         <v>26</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="H13" t="n">
         <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K13" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
@@ -2779,10 +2779,10 @@
         <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R13" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S13" t="n">
         <v>1.33</v>
@@ -2791,25 +2791,25 @@
         <v>3.25</v>
       </c>
       <c r="U13" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V13" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W13" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="X13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y13" t="n">
         <v>9</v>
       </c>
       <c r="Z13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA13" t="n">
         <v>17</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>15</v>
       </c>
       <c r="AB13" t="n">
         <v>23</v>
@@ -2830,34 +2830,34 @@
         <v>151</v>
       </c>
       <c r="AH13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM13" t="n">
         <v>29</v>
       </c>
       <c r="AN13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP13" t="n">
         <v>19</v>
       </c>
       <c r="AQ13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR13" t="n">
         <v>51</v>
@@ -2872,7 +2872,7 @@
         <v>7.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW13" t="n">
         <v>126</v>
@@ -2881,7 +2881,7 @@
         <v>5.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ13" t="n">
         <v>23</v>
@@ -2931,13 +2931,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J14" t="n">
         <v>3.2</v>
@@ -2946,7 +2946,7 @@
         <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2955,40 +2955,40 @@
         <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q14" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R14" t="n">
         <v>1.98</v>
       </c>
-      <c r="R14" t="n">
-        <v>1.88</v>
-      </c>
       <c r="S14" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T14" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U14" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V14" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W14" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="X14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y14" t="n">
         <v>10</v>
       </c>
       <c r="Z14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA14" t="n">
         <v>21</v>
@@ -2997,7 +2997,7 @@
         <v>29</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
         <v>6.5</v>
@@ -3012,7 +3012,7 @@
         <v>201</v>
       </c>
       <c r="AH14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI14" t="n">
         <v>13</v>
@@ -3030,13 +3030,13 @@
         <v>29</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO14" t="n">
         <v>15</v>
       </c>
       <c r="AP14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ14" t="n">
         <v>41</v>
@@ -3048,7 +3048,7 @@
         <v>151</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
         <v>7.5</v>
@@ -3069,7 +3069,7 @@
         <v>23</v>
       </c>
       <c r="BA14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB14" t="n">
         <v>67</v>
@@ -3113,13 +3113,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H15" t="n">
         <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>3.1</v>
@@ -3134,7 +3134,7 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.36</v>
@@ -3167,16 +3167,16 @@
         <v>11</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA15" t="n">
         <v>21</v>
       </c>
       <c r="AB15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC15" t="n">
         <v>8.5</v>
@@ -3194,13 +3194,13 @@
         <v>301</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI15" t="n">
         <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK15" t="n">
         <v>34</v>
@@ -3218,7 +3218,7 @@
         <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ15" t="n">
         <v>41</v>
@@ -3316,7 +3316,7 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O16" t="n">
         <v>1.22</v>
@@ -3495,10 +3495,10 @@
         <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
         <v>1.2</v>
@@ -3507,10 +3507,10 @@
         <v>4.33</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R17" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S17" t="n">
         <v>1.33</v>
@@ -3659,58 +3659,58 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I18" t="n">
         <v>2.6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K18" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
+        <v>11</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W18" t="n">
+        <v>10</v>
+      </c>
+      <c r="X18" t="n">
         <v>13</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W18" t="n">
-        <v>11</v>
-      </c>
-      <c r="X18" t="n">
-        <v>15</v>
       </c>
       <c r="Y18" t="n">
         <v>10</v>
@@ -3719,13 +3719,13 @@
         <v>26</v>
       </c>
       <c r="AA18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
         <v>6.5</v>
@@ -3737,13 +3737,13 @@
         <v>41</v>
       </c>
       <c r="AG18" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ18" t="n">
         <v>10</v>
@@ -3752,16 +3752,16 @@
         <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN18" t="n">
         <v>4.75</v>
       </c>
       <c r="AO18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP18" t="n">
         <v>21</v>
@@ -3770,28 +3770,28 @@
         <v>41</v>
       </c>
       <c r="AR18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS18" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AX18" t="n">
         <v>4.75</v>
       </c>
       <c r="AY18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ18" t="n">
         <v>21</v>
@@ -3803,7 +3803,7 @@
         <v>51</v>
       </c>
       <c r="BC18" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD18" t="n">
         <v>126</v>
@@ -3841,40 +3841,40 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I19" t="n">
         <v>3.1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K19" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
         <v>3.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O19" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="R19" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="S19" t="n">
         <v>1.5</v>
@@ -3883,13 +3883,13 @@
         <v>2.5</v>
       </c>
       <c r="U19" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V19" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X19" t="n">
         <v>11</v>
@@ -3907,7 +3907,7 @@
         <v>34</v>
       </c>
       <c r="AC19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD19" t="n">
         <v>6</v>
@@ -3919,10 +3919,10 @@
         <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AH19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI19" t="n">
         <v>15</v>
@@ -3934,7 +3934,7 @@
         <v>34</v>
       </c>
       <c r="AL19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM19" t="n">
         <v>41</v>
@@ -3943,7 +3943,7 @@
         <v>4.33</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP19" t="n">
         <v>26</v>
@@ -3952,10 +3952,10 @@
         <v>51</v>
       </c>
       <c r="AR19" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS19" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT19" t="n">
         <v>2.5</v>
@@ -3964,28 +3964,28 @@
         <v>8.5</v>
       </c>
       <c r="AV19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW19" t="n">
         <v>126</v>
       </c>
       <c r="AX19" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ19" t="n">
         <v>29</v>
       </c>
       <c r="BA19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB19" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC19" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD19" t="n">
         <v>126</v>
@@ -4023,22 +4023,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
         <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
@@ -4053,10 +4053,10 @@
         <v>3.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R20" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S20" t="n">
         <v>1.36</v>
@@ -4080,7 +4080,7 @@
         <v>11</v>
       </c>
       <c r="Z20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA20" t="n">
         <v>23</v>
@@ -4101,22 +4101,22 @@
         <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>9</v>
       </c>
-      <c r="AI20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AK20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM20" t="n">
         <v>26</v>
@@ -4125,7 +4125,7 @@
         <v>5</v>
       </c>
       <c r="AO20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP20" t="n">
         <v>23</v>
@@ -4152,10 +4152,10 @@
         <v>501</v>
       </c>
       <c r="AX20" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ20" t="n">
         <v>21</v>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H21" t="n">
         <v>3.5</v>
@@ -4235,22 +4235,22 @@
         <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R21" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S21" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T21" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U21" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V21" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W21" t="n">
         <v>9</v>
@@ -4271,10 +4271,10 @@
         <v>23</v>
       </c>
       <c r="AC21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
         <v>13</v>
@@ -4295,7 +4295,7 @@
         <v>11</v>
       </c>
       <c r="AK21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL21" t="n">
         <v>23</v>
@@ -4304,7 +4304,7 @@
         <v>29</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO21" t="n">
         <v>12</v>
@@ -4322,7 +4322,7 @@
         <v>126</v>
       </c>
       <c r="AT21" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU21" t="n">
         <v>7.5</v>
@@ -4337,7 +4337,7 @@
         <v>5</v>
       </c>
       <c r="AY21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ21" t="n">
         <v>23</v>
@@ -4569,28 +4569,28 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J23" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K23" t="n">
         <v>2.2</v>
       </c>
       <c r="L23" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O23" t="n">
         <v>1.29</v>
@@ -4611,22 +4611,22 @@
         <v>3</v>
       </c>
       <c r="U23" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V23" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y23" t="n">
         <v>8.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA23" t="n">
         <v>15</v>
@@ -4662,7 +4662,7 @@
         <v>51</v>
       </c>
       <c r="AL23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM23" t="n">
         <v>41</v>
@@ -4671,7 +4671,7 @@
         <v>3.75</v>
       </c>
       <c r="AO23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP23" t="n">
         <v>21</v>
@@ -4698,13 +4698,13 @@
         <v>81</v>
       </c>
       <c r="AX23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY23" t="n">
         <v>23</v>
       </c>
       <c r="AZ23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA23" t="n">
         <v>81</v>
@@ -4933,22 +4933,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H25" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I25" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J25" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K25" t="n">
         <v>2.2</v>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
@@ -4963,10 +4963,10 @@
         <v>3.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R25" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S25" t="n">
         <v>1.4</v>
@@ -4975,10 +4975,10 @@
         <v>2.75</v>
       </c>
       <c r="U25" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V25" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W25" t="n">
         <v>6.5</v>
@@ -4990,10 +4990,10 @@
         <v>8.5</v>
       </c>
       <c r="Z25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA25" t="n">
         <v>13</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>15</v>
       </c>
       <c r="AB25" t="n">
         <v>29</v>
@@ -5002,7 +5002,7 @@
         <v>10</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE25" t="n">
         <v>17</v>
@@ -5014,13 +5014,13 @@
         <v>301</v>
       </c>
       <c r="AH25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK25" t="n">
         <v>51</v>
@@ -5035,13 +5035,13 @@
         <v>3.6</v>
       </c>
       <c r="AO25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP25" t="n">
         <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR25" t="n">
         <v>51</v>
@@ -5062,10 +5062,10 @@
         <v>81</v>
       </c>
       <c r="AX25" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ25" t="n">
         <v>34</v>
@@ -5667,7 +5667,7 @@
         <v>3.7</v>
       </c>
       <c r="I29" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
         <v>3.75</v>
@@ -5685,16 +5685,16 @@
         <v>15</v>
       </c>
       <c r="O29" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P29" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R29" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S29" t="n">
         <v>1.3</v>
@@ -5721,7 +5721,7 @@
         <v>41</v>
       </c>
       <c r="AA29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB29" t="n">
         <v>29</v>
@@ -5766,7 +5766,7 @@
         <v>17</v>
       </c>
       <c r="AP29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ29" t="n">
         <v>51</v>
@@ -6025,13 +6025,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H31" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J31" t="n">
         <v>2.88</v>
@@ -6040,7 +6040,7 @@
         <v>2.3</v>
       </c>
       <c r="L31" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
@@ -6076,13 +6076,13 @@
         <v>10</v>
       </c>
       <c r="X31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y31" t="n">
         <v>9.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA31" t="n">
         <v>17</v>
@@ -6091,7 +6091,7 @@
         <v>23</v>
       </c>
       <c r="AC31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD31" t="n">
         <v>7</v>
@@ -6109,7 +6109,7 @@
         <v>12</v>
       </c>
       <c r="AI31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ31" t="n">
         <v>11</v>
@@ -6139,13 +6139,13 @@
         <v>51</v>
       </c>
       <c r="AS31" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT31" t="n">
         <v>3.25</v>
       </c>
       <c r="AU31" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV31" t="n">
         <v>41</v>
@@ -6163,7 +6163,7 @@
         <v>21</v>
       </c>
       <c r="BA31" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB31" t="n">
         <v>51</v>
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H32" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I32" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J32" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K32" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L32" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M32" t="n">
         <v>1.04</v>
@@ -6267,7 +6267,7 @@
         <v>15</v>
       </c>
       <c r="AA32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB32" t="n">
         <v>23</v>
@@ -6291,10 +6291,10 @@
         <v>13</v>
       </c>
       <c r="AI32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK32" t="n">
         <v>41</v>
@@ -6309,7 +6309,7 @@
         <v>4</v>
       </c>
       <c r="AO32" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP32" t="n">
         <v>19</v>
@@ -6339,10 +6339,10 @@
         <v>6</v>
       </c>
       <c r="AY32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA32" t="n">
         <v>67</v>
@@ -6419,10 +6419,10 @@
         <v>4.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R33" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S33" t="n">
         <v>1.3</v>
@@ -6777,16 +6777,16 @@
         <v>17</v>
       </c>
       <c r="O35" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P35" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R35" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S35" t="n">
         <v>1.3</v>
@@ -6935,7 +6935,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H36" t="n">
         <v>5.25</v>
@@ -6986,13 +6986,13 @@
         <v>10</v>
       </c>
       <c r="X36" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y36" t="n">
         <v>8.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA36" t="n">
         <v>11</v>
@@ -7007,7 +7007,7 @@
         <v>11</v>
       </c>
       <c r="AE36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF36" t="n">
         <v>41</v>
@@ -7028,7 +7028,7 @@
         <v>81</v>
       </c>
       <c r="AL36" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM36" t="n">
         <v>41</v>
@@ -7043,7 +7043,7 @@
         <v>15</v>
       </c>
       <c r="AQ36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR36" t="n">
         <v>34</v>
@@ -7055,7 +7055,7 @@
         <v>4</v>
       </c>
       <c r="AU36" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV36" t="n">
         <v>41</v>
@@ -7064,7 +7064,7 @@
         <v>126</v>
       </c>
       <c r="AX36" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AY36" t="n">
         <v>34</v>
@@ -7073,7 +7073,7 @@
         <v>34</v>
       </c>
       <c r="BA36" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB36" t="n">
         <v>101</v>
@@ -7120,58 +7120,58 @@
         <v>1.8</v>
       </c>
       <c r="H37" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I37" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L37" t="n">
         <v>4.5</v>
       </c>
-      <c r="J37" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K37" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L37" t="n">
-        <v>4.75</v>
-      </c>
       <c r="M37" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O37" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P37" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="R37" t="n">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="S37" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T37" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V37" t="n">
         <v>1.91</v>
       </c>
-      <c r="V37" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W37" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X37" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z37" t="n">
         <v>15</v>
@@ -7180,37 +7180,37 @@
         <v>15</v>
       </c>
       <c r="AB37" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC37" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD37" t="n">
         <v>6.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF37" t="n">
         <v>51</v>
       </c>
       <c r="AG37" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH37" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ37" t="n">
         <v>15</v>
       </c>
       <c r="AK37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL37" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM37" t="n">
         <v>41</v>
@@ -7219,7 +7219,7 @@
         <v>3.75</v>
       </c>
       <c r="AO37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP37" t="n">
         <v>21</v>
@@ -7234,10 +7234,10 @@
         <v>151</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU37" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV37" t="n">
         <v>51</v>
@@ -7252,7 +7252,7 @@
         <v>23</v>
       </c>
       <c r="AZ37" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA37" t="n">
         <v>81</v>
@@ -7261,7 +7261,7 @@
         <v>101</v>
       </c>
       <c r="BC37" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD37" t="n">
         <v>151</v>
@@ -7299,22 +7299,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H38" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I38" t="n">
         <v>2.42</v>
       </c>
       <c r="J38" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K38" t="n">
         <v>2.02</v>
       </c>
       <c r="L38" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="M38" t="n">
         <v>1.07</v>
@@ -7329,16 +7329,16 @@
         <v>3.25</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R38" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S38" t="n">
         <v>1.45</v>
       </c>
       <c r="T38" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="U38" t="n">
         <v>1.7</v>
@@ -7350,19 +7350,19 @@
         <v>9.25</v>
       </c>
       <c r="X38" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Z38" t="n">
         <v>40</v>
       </c>
       <c r="AA38" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB38" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC38" t="n">
         <v>7.5</v>
@@ -7380,25 +7380,25 @@
         <v>500</v>
       </c>
       <c r="AH38" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AI38" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ38" t="n">
         <v>9.75</v>
       </c>
       <c r="AK38" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL38" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM38" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AN38" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="AO38" t="n">
         <v>16</v>
@@ -7416,10 +7416,10 @@
         <v>300</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="AU38" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV38" t="n">
         <v>60</v>
@@ -7431,19 +7431,19 @@
         <v>4.35</v>
       </c>
       <c r="AY38" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AZ38" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA38" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB38" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BC38" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BD38" t="n">
         <v>51</v>
@@ -7505,10 +7505,10 @@
         <v>13</v>
       </c>
       <c r="O39" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P39" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q39" t="n">
         <v>1.7</v>
@@ -7628,7 +7628,7 @@
         <v>126</v>
       </c>
       <c r="BD39" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40">
@@ -7693,7 +7693,7 @@
         <v>3.75</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R40" t="n">
         <v>2</v>
@@ -8027,13 +8027,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H42" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J42" t="n">
         <v>3</v>
@@ -8042,13 +8042,13 @@
         <v>2.25</v>
       </c>
       <c r="L42" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M42" t="n">
         <v>1.04</v>
       </c>
       <c r="N42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O42" t="n">
         <v>1.22</v>
@@ -8057,16 +8057,16 @@
         <v>4</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R42" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S42" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T42" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U42" t="n">
         <v>1.62</v>
@@ -8075,7 +8075,7 @@
         <v>2.2</v>
       </c>
       <c r="W42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X42" t="n">
         <v>13</v>
@@ -8087,16 +8087,16 @@
         <v>23</v>
       </c>
       <c r="AA42" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB42" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD42" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE42" t="n">
         <v>13</v>
@@ -8108,13 +8108,13 @@
         <v>151</v>
       </c>
       <c r="AH42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI42" t="n">
         <v>15</v>
       </c>
       <c r="AJ42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK42" t="n">
         <v>29</v>
@@ -8144,13 +8144,13 @@
         <v>126</v>
       </c>
       <c r="AT42" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU42" t="n">
         <v>7.5</v>
       </c>
       <c r="AV42" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW42" t="n">
         <v>351</v>
@@ -8168,10 +8168,10 @@
         <v>51</v>
       </c>
       <c r="BB42" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC42" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD42" t="n">
         <v>81</v>
@@ -8209,55 +8209,55 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H43" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I43" t="n">
         <v>3.05</v>
       </c>
       <c r="J43" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="K43" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L43" t="n">
         <v>3.6</v>
       </c>
       <c r="M43" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N43" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="O43" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="P43" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R43" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S43" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="T43" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="U43" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="V43" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="W43" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="X43" t="n">
         <v>12.5</v>
@@ -8269,31 +8269,31 @@
         <v>24</v>
       </c>
       <c r="AA43" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AC43" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="AD43" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AE43" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AF43" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG43" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AH43" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AI43" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ43" t="n">
         <v>10.5</v>
@@ -8302,37 +8302,37 @@
         <v>40</v>
       </c>
       <c r="AL43" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM43" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AN43" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="AO43" t="n">
         <v>11.75</v>
       </c>
       <c r="AP43" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ43" t="n">
         <v>45</v>
       </c>
       <c r="AR43" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS43" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="AU43" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV43" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW43" t="n">
         <v>51</v>
@@ -8344,7 +8344,7 @@
         <v>17</v>
       </c>
       <c r="AZ43" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA43" t="n">
         <v>80</v>
@@ -8353,7 +8353,7 @@
         <v>110</v>
       </c>
       <c r="BC43" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BD43" t="n">
         <v>51</v>
@@ -8394,10 +8394,10 @@
         <v>1.75</v>
       </c>
       <c r="H44" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I44" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J44" t="n">
         <v>2.25</v>
@@ -8415,28 +8415,28 @@
         <v>9.25</v>
       </c>
       <c r="O44" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P44" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R44" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="S44" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="T44" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="U44" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="V44" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="W44" t="n">
         <v>10.25</v>
@@ -8454,7 +8454,7 @@
         <v>12.5</v>
       </c>
       <c r="AB44" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC44" t="n">
         <v>9.25</v>
@@ -8463,31 +8463,31 @@
         <v>8</v>
       </c>
       <c r="AE44" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF44" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG44" t="n">
         <v>200</v>
       </c>
       <c r="AH44" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI44" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ44" t="n">
         <v>13</v>
       </c>
       <c r="AK44" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL44" t="n">
         <v>30</v>
       </c>
       <c r="AM44" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN44" t="n">
         <v>4</v>
@@ -8505,28 +8505,28 @@
         <v>45</v>
       </c>
       <c r="AS44" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AT44" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AU44" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV44" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW44" t="n">
         <v>500</v>
       </c>
       <c r="AX44" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AY44" t="n">
         <v>20</v>
       </c>
       <c r="AZ44" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA44" t="n">
         <v>90</v>
@@ -8576,19 +8576,19 @@
         <v>1.75</v>
       </c>
       <c r="H45" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I45" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J45" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="K45" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L45" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="M45" t="n">
         <v>1.04</v>
@@ -8630,10 +8630,10 @@
         <v>8.25</v>
       </c>
       <c r="Z45" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA45" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB45" t="n">
         <v>23</v>
@@ -8642,22 +8642,22 @@
         <v>8.25</v>
       </c>
       <c r="AD45" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF45" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG45" t="n">
         <v>400</v>
       </c>
       <c r="AH45" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AI45" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ45" t="n">
         <v>13</v>
@@ -8669,19 +8669,19 @@
         <v>35</v>
       </c>
       <c r="AM45" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN45" t="n">
         <v>3.75</v>
       </c>
       <c r="AO45" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AP45" t="n">
         <v>16.5</v>
       </c>
       <c r="AQ45" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR45" t="n">
         <v>55</v>
@@ -8693,7 +8693,7 @@
         <v>3</v>
       </c>
       <c r="AU45" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AV45" t="n">
         <v>60</v>
@@ -8702,7 +8702,7 @@
         <v>51</v>
       </c>
       <c r="AX45" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AY45" t="n">
         <v>21</v>
@@ -8714,7 +8714,7 @@
         <v>110</v>
       </c>
       <c r="BB45" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BC45" t="n">
         <v>300</v>
@@ -8937,76 +8937,76 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="H47" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="I47" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J47" t="n">
         <v>1.6</v>
       </c>
       <c r="K47" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="L47" t="n">
         <v>10.75</v>
       </c>
       <c r="M47" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N47" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O47" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P47" t="n">
-        <v>4.25</v>
+        <v>4.05</v>
       </c>
       <c r="Q47" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T47" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V47" t="n">
         <v>1.57</v>
       </c>
-      <c r="R47" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S47" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T47" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U47" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V47" t="n">
-        <v>1.55</v>
-      </c>
       <c r="W47" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X47" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y47" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AA47" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AB47" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC47" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD47" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE47" t="n">
         <v>32</v>
@@ -9018,43 +9018,43 @@
         <v>201</v>
       </c>
       <c r="AH47" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AI47" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AJ47" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AK47" t="n">
         <v>600</v>
       </c>
       <c r="AL47" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AM47" t="n">
         <v>175</v>
       </c>
       <c r="AN47" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AO47" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AP47" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ47" t="n">
         <v>12</v>
       </c>
       <c r="AR47" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AS47" t="n">
         <v>250</v>
       </c>
       <c r="AT47" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AU47" t="n">
         <v>10.25</v>
@@ -9066,13 +9066,13 @@
         <v>51</v>
       </c>
       <c r="AX47" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AY47" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AZ47" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BA47" t="n">
         <v>500</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-24.xlsx
@@ -753,7 +753,7 @@
         <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
@@ -825,7 +825,7 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH2" t="n">
         <v>17</v>
@@ -846,7 +846,7 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO2" t="n">
         <v>7</v>
@@ -867,7 +867,7 @@
         <v>3.4</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H3" t="n">
         <v>3.8</v>
@@ -950,7 +950,7 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
@@ -959,10 +959,10 @@
         <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="R3" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -977,7 +977,7 @@
         <v>1.75</v>
       </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
         <v>7</v>
@@ -1007,7 +1007,7 @@
         <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH3" t="n">
         <v>13</v>
@@ -1016,7 +1016,7 @@
         <v>29</v>
       </c>
       <c r="AJ3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="n">
         <v>67</v>
@@ -1031,7 +1031,7 @@
         <v>3.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
@@ -1061,13 +1061,13 @@
         <v>7</v>
       </c>
       <c r="AY3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
         <v>41</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
         <v>151</v>
@@ -1129,16 +1129,16 @@
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
         <v>2.75</v>
@@ -1201,7 +1201,7 @@
         <v>15</v>
       </c>
       <c r="AK4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL4" t="n">
         <v>41</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="H5" t="n">
         <v>6.5</v>
       </c>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="K5" t="n">
         <v>2.88</v>
@@ -1311,10 +1311,10 @@
         <v>10</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O5" t="n">
         <v>1.14</v>
@@ -1335,10 +1335,10 @@
         <v>3.75</v>
       </c>
       <c r="U5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
         <v>8.5</v>
@@ -1347,7 +1347,7 @@
         <v>6.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
         <v>7</v>
@@ -1368,7 +1368,7 @@
         <v>26</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="n">
         <v>451</v>
@@ -1395,7 +1395,7 @@
         <v>3.25</v>
       </c>
       <c r="AO5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AP5" t="n">
         <v>17</v>
@@ -1419,7 +1419,7 @@
         <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX5" t="n">
         <v>12</v>
@@ -1437,7 +1437,7 @@
         <v>251</v>
       </c>
       <c r="BC5" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1475,124 +1475,124 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="H6" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>2.45</v>
+        <v>2.72</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="L6" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>4.4</v>
+        <v>4.65</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="S6" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="T6" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="U6" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="V6" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="W6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X6" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="Z6" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AA6" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
       </c>
       <c r="AF6" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG6" t="n">
         <v>175</v>
       </c>
       <c r="AH6" t="n">
-        <v>11.75</v>
+        <v>14.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AK6" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AL6" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AM6" t="n">
         <v>21</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.9</v>
+        <v>4.65</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>11.25</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AR6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS6" t="n">
         <v>150</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AU6" t="n">
         <v>6.2</v>
@@ -1604,10 +1604,10 @@
         <v>500</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="AY6" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AZ6" t="n">
         <v>16.5</v>
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H7" t="n">
         <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J7" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K7" t="n">
         <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1714,7 +1714,7 @@
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="n">
         <v>17</v>
@@ -1738,7 +1738,7 @@
         <v>351</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
         <v>19</v>
@@ -1756,7 +1756,7 @@
         <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO7" t="n">
         <v>11</v>
@@ -1765,7 +1765,7 @@
         <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
@@ -1786,7 +1786,7 @@
         <v>51</v>
       </c>
       <c r="AX7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY7" t="n">
         <v>23</v>
@@ -1869,10 +1869,10 @@
         <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R8" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S8" t="n">
         <v>1.33</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
         <v>2.88</v>
       </c>
       <c r="I10" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
         <v>3</v>
@@ -2284,7 +2284,7 @@
         <v>201</v>
       </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI10" t="n">
         <v>19</v>
@@ -2299,7 +2299,7 @@
         <v>41</v>
       </c>
       <c r="AM10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN10" t="n">
         <v>3.75</v>
@@ -2311,10 +2311,10 @@
         <v>34</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS10" t="n">
         <v>500</v>
@@ -2332,10 +2332,10 @@
         <v>81</v>
       </c>
       <c r="AX10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
         <v>41</v>
@@ -2567,13 +2567,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J12" t="n">
         <v>4.33</v>
@@ -2588,7 +2588,7 @@
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.4</v>
@@ -2597,10 +2597,10 @@
         <v>2.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R12" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S12" t="n">
         <v>1.5</v>
@@ -2642,7 +2642,7 @@
         <v>17</v>
       </c>
       <c r="AF12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG12" t="n">
         <v>900</v>
@@ -2675,7 +2675,7 @@
         <v>34</v>
       </c>
       <c r="AQ12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR12" t="n">
         <v>101</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="J13" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L13" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
@@ -2800,13 +2800,13 @@
         <v>9.5</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA13" t="n">
         <v>17</v>
@@ -2833,28 +2833,28 @@
         <v>11</v>
       </c>
       <c r="AI13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ13" t="n">
         <v>41</v>
@@ -2878,22 +2878,22 @@
         <v>126</v>
       </c>
       <c r="AX13" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA13" t="n">
         <v>51</v>
       </c>
       <c r="BB13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC13" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD13" t="n">
         <v>126</v>
@@ -2931,40 +2931,40 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H14" t="n">
         <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L14" t="n">
         <v>3.25</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="R14" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S14" t="n">
         <v>1.36</v>
@@ -2973,10 +2973,10 @@
         <v>3</v>
       </c>
       <c r="U14" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V14" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W14" t="n">
         <v>9.5</v>
@@ -2985,22 +2985,22 @@
         <v>13</v>
       </c>
       <c r="Y14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB14" t="n">
         <v>26</v>
       </c>
-      <c r="AA14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>29</v>
-      </c>
       <c r="AC14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
         <v>13</v>
@@ -3009,13 +3009,13 @@
         <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
         <v>10</v>
@@ -3027,13 +3027,13 @@
         <v>21</v>
       </c>
       <c r="AM14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN14" t="n">
         <v>4.75</v>
       </c>
       <c r="AO14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP14" t="n">
         <v>21</v>
@@ -3042,10 +3042,10 @@
         <v>41</v>
       </c>
       <c r="AR14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT14" t="n">
         <v>3</v>
@@ -3066,7 +3066,7 @@
         <v>15</v>
       </c>
       <c r="AZ14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA14" t="n">
         <v>41</v>
@@ -3295,13 +3295,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H16" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J16" t="n">
         <v>1.83</v>
@@ -3316,13 +3316,13 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q16" t="n">
         <v>1.7</v>
@@ -3352,7 +3352,7 @@
         <v>8.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA16" t="n">
         <v>12</v>
@@ -3361,16 +3361,16 @@
         <v>26</v>
       </c>
       <c r="AC16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE16" t="n">
         <v>21</v>
       </c>
       <c r="AF16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG16" t="n">
         <v>351</v>
@@ -3382,7 +3382,7 @@
         <v>41</v>
       </c>
       <c r="AJ16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK16" t="n">
         <v>101</v>
@@ -3403,7 +3403,7 @@
         <v>19</v>
       </c>
       <c r="AQ16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR16" t="n">
         <v>41</v>
@@ -3415,7 +3415,7 @@
         <v>3.25</v>
       </c>
       <c r="AU16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
@@ -3439,7 +3439,7 @@
         <v>151</v>
       </c>
       <c r="BC16" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD16" t="n">
         <v>126</v>
@@ -3495,10 +3495,10 @@
         <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O17" t="n">
         <v>1.2</v>
@@ -3841,28 +3841,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H19" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I19" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L19" t="n">
         <v>3.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.44</v>
@@ -3871,61 +3871,61 @@
         <v>2.63</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R19" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S19" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="T19" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U19" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V19" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="W19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X19" t="n">
         <v>11</v>
       </c>
       <c r="Y19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA19" t="n">
         <v>23</v>
       </c>
-      <c r="AA19" t="n">
-        <v>21</v>
-      </c>
       <c r="AB19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG19" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AH19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ19" t="n">
         <v>12</v>
@@ -3946,7 +3946,7 @@
         <v>15</v>
       </c>
       <c r="AP19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ19" t="n">
         <v>51</v>
@@ -3958,10 +3958,10 @@
         <v>251</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV19" t="n">
         <v>67</v>
@@ -3976,7 +3976,7 @@
         <v>19</v>
       </c>
       <c r="AZ19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA19" t="n">
         <v>67</v>
@@ -3985,7 +3985,7 @@
         <v>101</v>
       </c>
       <c r="BC19" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD19" t="n">
         <v>126</v>
@@ -4026,7 +4026,7 @@
         <v>3.1</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
         <v>2.2</v>
@@ -4047,22 +4047,22 @@
         <v>11</v>
       </c>
       <c r="O20" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="R20" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S20" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T20" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U20" t="n">
         <v>1.7</v>
@@ -4074,7 +4074,7 @@
         <v>10</v>
       </c>
       <c r="X20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y20" t="n">
         <v>11</v>
@@ -4086,7 +4086,7 @@
         <v>23</v>
       </c>
       <c r="AB20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="n">
         <v>11</v>
@@ -4140,7 +4140,7 @@
         <v>151</v>
       </c>
       <c r="AT20" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU20" t="n">
         <v>7.5</v>
@@ -4205,22 +4205,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K21" t="n">
         <v>2.25</v>
       </c>
       <c r="L21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
@@ -4256,7 +4256,7 @@
         <v>9</v>
       </c>
       <c r="X21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y21" t="n">
         <v>9</v>
@@ -4310,7 +4310,7 @@
         <v>12</v>
       </c>
       <c r="AP21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ21" t="n">
         <v>41</v>
@@ -4328,13 +4328,13 @@
         <v>7.5</v>
       </c>
       <c r="AV21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW21" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AX21" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY21" t="n">
         <v>17</v>
@@ -5115,13 +5115,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J26" t="n">
         <v>3.75</v>
@@ -5130,7 +5130,7 @@
         <v>1.95</v>
       </c>
       <c r="L26" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M26" t="n">
         <v>1.1</v>
@@ -5172,10 +5172,10 @@
         <v>12</v>
       </c>
       <c r="Z26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA26" t="n">
         <v>29</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>26</v>
       </c>
       <c r="AB26" t="n">
         <v>41</v>
@@ -5196,16 +5196,16 @@
         <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI26" t="n">
         <v>11</v>
       </c>
       <c r="AJ26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL26" t="n">
         <v>23</v>
@@ -5217,7 +5217,7 @@
         <v>4.75</v>
       </c>
       <c r="AO26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP26" t="n">
         <v>29</v>
@@ -5235,7 +5235,7 @@
         <v>2.38</v>
       </c>
       <c r="AU26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV26" t="n">
         <v>67</v>
@@ -5244,7 +5244,7 @@
         <v>81</v>
       </c>
       <c r="AX26" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY26" t="n">
         <v>15</v>
@@ -5297,22 +5297,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H27" t="n">
         <v>4.5</v>
       </c>
       <c r="I27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J27" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K27" t="n">
         <v>2.3</v>
       </c>
       <c r="L27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
@@ -5354,7 +5354,7 @@
         <v>9</v>
       </c>
       <c r="Z27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA27" t="n">
         <v>13</v>
@@ -5378,16 +5378,16 @@
         <v>1250</v>
       </c>
       <c r="AH27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI27" t="n">
         <v>41</v>
       </c>
       <c r="AJ27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK27" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL27" t="n">
         <v>51</v>
@@ -5396,16 +5396,16 @@
         <v>51</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP27" t="n">
         <v>21</v>
       </c>
       <c r="AQ27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR27" t="n">
         <v>41</v>
@@ -5417,7 +5417,7 @@
         <v>3</v>
       </c>
       <c r="AU27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV27" t="n">
         <v>67</v>
@@ -5426,7 +5426,7 @@
         <v>81</v>
       </c>
       <c r="AX27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY27" t="n">
         <v>41</v>
@@ -5435,7 +5435,7 @@
         <v>41</v>
       </c>
       <c r="BA27" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB27" t="n">
         <v>201</v>
@@ -5497,10 +5497,10 @@
         <v>3.6</v>
       </c>
       <c r="M28" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O28" t="n">
         <v>1.36</v>
@@ -5509,10 +5509,10 @@
         <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R28" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S28" t="n">
         <v>1.5</v>
@@ -5664,25 +5664,25 @@
         <v>3.4</v>
       </c>
       <c r="H29" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J29" t="n">
         <v>3.75</v>
       </c>
       <c r="K29" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L29" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M29" t="n">
         <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O29" t="n">
         <v>1.18</v>
@@ -5697,19 +5697,19 @@
         <v>2.3</v>
       </c>
       <c r="S29" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U29" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="V29" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="W29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X29" t="n">
         <v>21</v>
@@ -5724,10 +5724,10 @@
         <v>23</v>
       </c>
       <c r="AB29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD29" t="n">
         <v>7.5</v>
@@ -5736,16 +5736,16 @@
         <v>12</v>
       </c>
       <c r="AF29" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG29" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ29" t="n">
         <v>9</v>
@@ -5772,13 +5772,13 @@
         <v>51</v>
       </c>
       <c r="AR29" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS29" t="n">
         <v>126</v>
       </c>
       <c r="AT29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU29" t="n">
         <v>7</v>
@@ -5787,7 +5787,7 @@
         <v>41</v>
       </c>
       <c r="AW29" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="AX29" t="n">
         <v>4.33</v>
@@ -6228,7 +6228,7 @@
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O32" t="n">
         <v>1.22</v>
@@ -6389,22 +6389,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="H33" t="n">
         <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="J33" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="K33" t="n">
         <v>2.3</v>
       </c>
       <c r="L33" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
@@ -6437,19 +6437,19 @@
         <v>2.38</v>
       </c>
       <c r="W33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB33" t="n">
         <v>23</v>
@@ -6461,7 +6461,7 @@
         <v>7</v>
       </c>
       <c r="AE33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF33" t="n">
         <v>34</v>
@@ -6473,25 +6473,25 @@
         <v>12</v>
       </c>
       <c r="AI33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK33" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN33" t="n">
         <v>4.75</v>
       </c>
       <c r="AO33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP33" t="n">
         <v>19</v>
@@ -6515,16 +6515,16 @@
         <v>41</v>
       </c>
       <c r="AW33" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="AX33" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA33" t="n">
         <v>41</v>
@@ -6533,7 +6533,7 @@
         <v>51</v>
       </c>
       <c r="BC33" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD33" t="n">
         <v>81</v>
@@ -6571,16 +6571,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H34" t="n">
         <v>3.7</v>
       </c>
       <c r="I34" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J34" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
         <v>2.3</v>
@@ -6601,10 +6601,10 @@
         <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R34" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S34" t="n">
         <v>1.33</v>
@@ -6655,7 +6655,7 @@
         <v>8.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ34" t="n">
         <v>8.5</v>
@@ -6673,7 +6673,7 @@
         <v>6</v>
       </c>
       <c r="AO34" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP34" t="n">
         <v>26</v>
@@ -6703,13 +6703,13 @@
         <v>4</v>
       </c>
       <c r="AY34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AZ34" t="n">
         <v>19</v>
       </c>
       <c r="BA34" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BB34" t="n">
         <v>51</v>
@@ -6759,16 +6759,16 @@
         <v>4.1</v>
       </c>
       <c r="I35" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J35" t="n">
         <v>2.38</v>
       </c>
       <c r="K35" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L35" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M35" t="n">
         <v>1.03</v>
@@ -6789,19 +6789,19 @@
         <v>2.35</v>
       </c>
       <c r="S35" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T35" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U35" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V35" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X35" t="n">
         <v>10</v>
@@ -6819,22 +6819,22 @@
         <v>21</v>
       </c>
       <c r="AC35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD35" t="n">
         <v>8</v>
       </c>
       <c r="AE35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH35" t="n">
         <v>15</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>13</v>
       </c>
       <c r="AI35" t="n">
         <v>21</v>
@@ -6846,7 +6846,7 @@
         <v>41</v>
       </c>
       <c r="AL35" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM35" t="n">
         <v>29</v>
@@ -6855,7 +6855,7 @@
         <v>4</v>
       </c>
       <c r="AO35" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP35" t="n">
         <v>17</v>
@@ -6870,7 +6870,7 @@
         <v>101</v>
       </c>
       <c r="AT35" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU35" t="n">
         <v>7.5</v>
@@ -6879,25 +6879,25 @@
         <v>41</v>
       </c>
       <c r="AW35" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="AX35" t="n">
         <v>6</v>
       </c>
       <c r="AY35" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ35" t="n">
         <v>23</v>
       </c>
       <c r="BA35" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB35" t="n">
         <v>67</v>
       </c>
       <c r="BC35" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD35" t="n">
         <v>81</v>
@@ -6935,28 +6935,28 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="H36" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I36" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J36" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K36" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L36" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M36" t="n">
         <v>1.02</v>
       </c>
       <c r="N36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O36" t="n">
         <v>1.13</v>
@@ -6971,10 +6971,10 @@
         <v>2.7</v>
       </c>
       <c r="S36" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T36" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U36" t="n">
         <v>1.67</v>
@@ -6986,13 +6986,13 @@
         <v>10</v>
       </c>
       <c r="X36" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y36" t="n">
         <v>8.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA36" t="n">
         <v>11</v>
@@ -7004,10 +7004,10 @@
         <v>21</v>
       </c>
       <c r="AD36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF36" t="n">
         <v>41</v>
@@ -7016,25 +7016,25 @@
         <v>151</v>
       </c>
       <c r="AH36" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI36" t="n">
         <v>41</v>
       </c>
       <c r="AJ36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK36" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL36" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM36" t="n">
         <v>41</v>
       </c>
       <c r="AN36" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO36" t="n">
         <v>6.5</v>
@@ -7043,7 +7043,7 @@
         <v>15</v>
       </c>
       <c r="AQ36" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR36" t="n">
         <v>34</v>
@@ -7052,10 +7052,10 @@
         <v>81</v>
       </c>
       <c r="AT36" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU36" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV36" t="n">
         <v>41</v>
@@ -7064,16 +7064,16 @@
         <v>126</v>
       </c>
       <c r="AX36" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY36" t="n">
         <v>34</v>
       </c>
       <c r="AZ36" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA36" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB36" t="n">
         <v>101</v>
@@ -7117,13 +7117,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H37" t="n">
         <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J37" t="n">
         <v>2.4</v>
@@ -7132,7 +7132,7 @@
         <v>2.2</v>
       </c>
       <c r="L37" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M37" t="n">
         <v>1.05</v>
@@ -7195,7 +7195,7 @@
         <v>51</v>
       </c>
       <c r="AG37" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH37" t="n">
         <v>13</v>
@@ -7207,7 +7207,7 @@
         <v>15</v>
       </c>
       <c r="AK37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL37" t="n">
         <v>34</v>
@@ -7225,7 +7225,7 @@
         <v>21</v>
       </c>
       <c r="AQ37" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR37" t="n">
         <v>51</v>
@@ -7299,37 +7299,37 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.92</v>
+        <v>2.77</v>
       </c>
       <c r="H38" t="n">
         <v>3.15</v>
       </c>
       <c r="I38" t="n">
-        <v>2.42</v>
+        <v>2.55</v>
       </c>
       <c r="J38" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="K38" t="n">
         <v>2.02</v>
       </c>
       <c r="L38" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="M38" t="n">
         <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="O38" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P38" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R38" t="n">
         <v>1.85</v>
@@ -7341,31 +7341,31 @@
         <v>2.7</v>
       </c>
       <c r="U38" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V38" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W38" t="n">
         <v>9.25</v>
       </c>
       <c r="X38" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y38" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA38" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AB38" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AC38" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD38" t="n">
         <v>6.4</v>
@@ -7377,43 +7377,43 @@
         <v>60</v>
       </c>
       <c r="AG38" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AH38" t="n">
         <v>8.25</v>
       </c>
       <c r="AI38" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ38" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AK38" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AL38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP38" t="n">
         <v>21</v>
       </c>
-      <c r="AM38" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>16</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ38" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AR38" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS38" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT38" t="n">
         <v>2.67</v>
@@ -7428,22 +7428,22 @@
         <v>51</v>
       </c>
       <c r="AX38" t="n">
-        <v>4.35</v>
+        <v>4.5</v>
       </c>
       <c r="AY38" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ38" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA38" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="BB38" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BC38" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BD38" t="n">
         <v>51</v>
@@ -7505,10 +7505,10 @@
         <v>13</v>
       </c>
       <c r="O39" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P39" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q39" t="n">
         <v>1.7</v>
@@ -7669,7 +7669,7 @@
         <v>3.5</v>
       </c>
       <c r="I40" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J40" t="n">
         <v>2.75</v>
@@ -7687,10 +7687,10 @@
         <v>13</v>
       </c>
       <c r="O40" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P40" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q40" t="n">
         <v>1.8</v>
@@ -7705,10 +7705,10 @@
         <v>3</v>
       </c>
       <c r="U40" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V40" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W40" t="n">
         <v>8.5</v>
@@ -7723,7 +7723,7 @@
         <v>19</v>
       </c>
       <c r="AA40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB40" t="n">
         <v>23</v>
@@ -7741,7 +7741,7 @@
         <v>41</v>
       </c>
       <c r="AG40" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH40" t="n">
         <v>11</v>
@@ -7750,13 +7750,13 @@
         <v>17</v>
       </c>
       <c r="AJ40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK40" t="n">
         <v>34</v>
       </c>
       <c r="AL40" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM40" t="n">
         <v>29</v>
@@ -7768,7 +7768,7 @@
         <v>11</v>
       </c>
       <c r="AP40" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ40" t="n">
         <v>41</v>
@@ -7845,22 +7845,22 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H41" t="n">
         <v>3.5</v>
       </c>
       <c r="I41" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="J41" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K41" t="n">
         <v>2.25</v>
       </c>
       <c r="L41" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M41" t="n">
         <v>1.04</v>
@@ -7917,7 +7917,7 @@
         <v>7</v>
       </c>
       <c r="AE41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF41" t="n">
         <v>41</v>
@@ -7953,7 +7953,7 @@
         <v>21</v>
       </c>
       <c r="AQ41" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR41" t="n">
         <v>51</v>
@@ -7974,7 +7974,7 @@
         <v>451</v>
       </c>
       <c r="AX41" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY41" t="n">
         <v>13</v>
@@ -8027,16 +8027,16 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H42" t="n">
         <v>3.6</v>
       </c>
       <c r="I42" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J42" t="n">
         <v>2.88</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3</v>
       </c>
       <c r="K42" t="n">
         <v>2.25</v>
@@ -8075,16 +8075,16 @@
         <v>2.2</v>
       </c>
       <c r="W42" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y42" t="n">
         <v>9.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA42" t="n">
         <v>17</v>
@@ -8129,7 +8129,7 @@
         <v>4.5</v>
       </c>
       <c r="AO42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP42" t="n">
         <v>21</v>
@@ -8168,7 +8168,7 @@
         <v>51</v>
       </c>
       <c r="BB42" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC42" t="n">
         <v>126</v>
@@ -8209,28 +8209,28 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H43" t="n">
         <v>3.2</v>
       </c>
       <c r="I43" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
         <v>2.85</v>
       </c>
       <c r="K43" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L43" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="M43" t="n">
         <v>1.06</v>
       </c>
       <c r="N43" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="O43" t="n">
         <v>1.28</v>
@@ -8239,7 +8239,7 @@
         <v>3.35</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R43" t="n">
         <v>1.9</v>
@@ -8248,7 +8248,7 @@
         <v>1.39</v>
       </c>
       <c r="T43" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="U43" t="n">
         <v>1.65</v>
@@ -8257,7 +8257,7 @@
         <v>2.12</v>
       </c>
       <c r="W43" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="X43" t="n">
         <v>12.5</v>
@@ -8266,7 +8266,7 @@
         <v>8.75</v>
       </c>
       <c r="Z43" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA43" t="n">
         <v>17.5</v>
@@ -8275,7 +8275,7 @@
         <v>24</v>
       </c>
       <c r="AC43" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AD43" t="n">
         <v>6.2</v>
@@ -8299,19 +8299,19 @@
         <v>10.5</v>
       </c>
       <c r="AK43" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AL43" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM43" t="n">
         <v>30</v>
       </c>
       <c r="AN43" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="AO43" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AP43" t="n">
         <v>18</v>
@@ -8326,7 +8326,7 @@
         <v>200</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU43" t="n">
         <v>6.6</v>
@@ -8338,13 +8338,13 @@
         <v>51</v>
       </c>
       <c r="AX43" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AY43" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AZ43" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA43" t="n">
         <v>80</v>
@@ -8353,7 +8353,7 @@
         <v>110</v>
       </c>
       <c r="BC43" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BD43" t="n">
         <v>51</v>
@@ -8391,22 +8391,22 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H44" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J44" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K44" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L44" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="M44" t="n">
         <v>1.03</v>
@@ -8418,13 +8418,13 @@
         <v>1.16</v>
       </c>
       <c r="P44" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="Q44" t="n">
         <v>1.5</v>
       </c>
       <c r="R44" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="S44" t="n">
         <v>1.27</v>
@@ -8442,16 +8442,16 @@
         <v>10.25</v>
       </c>
       <c r="X44" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Y44" t="n">
         <v>8.25</v>
       </c>
       <c r="Z44" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA44" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB44" t="n">
         <v>18</v>
@@ -8460,7 +8460,7 @@
         <v>9.25</v>
       </c>
       <c r="AD44" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AE44" t="n">
         <v>12</v>
@@ -8472,37 +8472,37 @@
         <v>200</v>
       </c>
       <c r="AH44" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI44" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ44" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK44" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL44" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM44" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN44" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AO44" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AP44" t="n">
         <v>14</v>
       </c>
       <c r="AQ44" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR44" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS44" t="n">
         <v>120</v>
@@ -8520,16 +8520,16 @@
         <v>500</v>
       </c>
       <c r="AX44" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AY44" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ44" t="n">
         <v>21</v>
       </c>
       <c r="BA44" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB44" t="n">
         <v>100</v>
@@ -8573,22 +8573,22 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H45" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I45" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="J45" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K45" t="n">
         <v>2.3</v>
       </c>
-      <c r="K45" t="n">
-        <v>2.27</v>
-      </c>
       <c r="L45" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="M45" t="n">
         <v>1.04</v>
@@ -8600,13 +8600,13 @@
         <v>1.23</v>
       </c>
       <c r="P45" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R45" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S45" t="n">
         <v>1.34</v>
@@ -8618,22 +8618,22 @@
         <v>1.7</v>
       </c>
       <c r="V45" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="W45" t="n">
         <v>8</v>
       </c>
       <c r="X45" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y45" t="n">
         <v>8.25</v>
       </c>
       <c r="Z45" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA45" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB45" t="n">
         <v>23</v>
@@ -8642,46 +8642,46 @@
         <v>8.25</v>
       </c>
       <c r="AD45" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AE45" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF45" t="n">
         <v>60</v>
       </c>
       <c r="AG45" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AH45" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AI45" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ45" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK45" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL45" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM45" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN45" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="AO45" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AP45" t="n">
         <v>16.5</v>
       </c>
       <c r="AQ45" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AR45" t="n">
         <v>55</v>
@@ -8693,7 +8693,7 @@
         <v>3</v>
       </c>
       <c r="AU45" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AV45" t="n">
         <v>60</v>
@@ -8702,22 +8702,22 @@
         <v>51</v>
       </c>
       <c r="AX45" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AY45" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ45" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA45" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB45" t="n">
         <v>150</v>
       </c>
       <c r="BC45" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BD45" t="n">
         <v>51</v>
@@ -8758,7 +8758,7 @@
         <v>1.72</v>
       </c>
       <c r="H46" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I46" t="n">
         <v>4.4</v>
@@ -8767,7 +8767,7 @@
         <v>2.27</v>
       </c>
       <c r="K46" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L46" t="n">
         <v>4.8</v>
@@ -8791,13 +8791,13 @@
         <v>1.78</v>
       </c>
       <c r="S46" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T46" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="U46" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V46" t="n">
         <v>1.83</v>
@@ -8824,10 +8824,10 @@
         <v>7</v>
       </c>
       <c r="AD46" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AE46" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF46" t="n">
         <v>80</v>
@@ -8845,7 +8845,7 @@
         <v>15</v>
       </c>
       <c r="AK46" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL46" t="n">
         <v>45</v>
@@ -8854,7 +8854,7 @@
         <v>50</v>
       </c>
       <c r="AN46" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AO46" t="n">
         <v>8.5</v>
@@ -8863,7 +8863,7 @@
         <v>17.5</v>
       </c>
       <c r="AQ46" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR46" t="n">
         <v>60</v>
@@ -8872,10 +8872,10 @@
         <v>250</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU46" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AV46" t="n">
         <v>70</v>
@@ -8937,76 +8937,76 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="H47" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I47" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J47" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="K47" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="L47" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="M47" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N47" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O47" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P47" t="n">
-        <v>4.05</v>
+        <v>4.25</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R47" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="S47" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="T47" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="U47" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="V47" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="W47" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="X47" t="n">
         <v>5.7</v>
       </c>
       <c r="Y47" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z47" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AA47" t="n">
         <v>11</v>
       </c>
       <c r="AB47" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC47" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD47" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE47" t="n">
         <v>32</v>
@@ -9018,46 +9018,46 @@
         <v>201</v>
       </c>
       <c r="AH47" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AI47" t="n">
         <v>120</v>
       </c>
       <c r="AJ47" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AK47" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AL47" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AM47" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AN47" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="AO47" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AP47" t="n">
         <v>17</v>
       </c>
       <c r="AQ47" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AR47" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS47" t="n">
         <v>250</v>
       </c>
       <c r="AT47" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AU47" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AV47" t="n">
         <v>110</v>
@@ -9066,7 +9066,7 @@
         <v>51</v>
       </c>
       <c r="AX47" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AY47" t="n">
         <v>100</v>
@@ -9119,151 +9119,151 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="H48" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="I48" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="J48" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="K48" t="n">
         <v>2.27</v>
       </c>
       <c r="L48" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="M48" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N48" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="O48" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P48" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="R48" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S48" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="T48" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="U48" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="V48" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="W48" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="X48" t="n">
         <v>45</v>
       </c>
       <c r="Y48" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Z48" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AA48" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AB48" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AC48" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AF48" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AG48" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AH48" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="AI48" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="AJ48" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK48" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AL48" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AM48" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AN48" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP48" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AQ48" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AR48" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AS48" t="n">
         <v>500</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="AU48" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AV48" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AW48" t="n">
         <v>51</v>
       </c>
       <c r="AX48" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AY48" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AZ48" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="BA48" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="BB48" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BC48" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BD48" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-24.xlsx
@@ -747,46 +747,46 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H2" t="n">
         <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U2" t="n">
         <v>1.8</v>
@@ -795,7 +795,7 @@
         <v>1.95</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X2" t="n">
         <v>7.5</v>
@@ -813,7 +813,7 @@
         <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
         <v>8.5</v>
@@ -828,13 +828,13 @@
         <v>251</v>
       </c>
       <c r="AH2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>17</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>19</v>
       </c>
       <c r="AK2" t="n">
         <v>67</v>
@@ -846,10 +846,10 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>
@@ -861,10 +861,10 @@
         <v>41</v>
       </c>
       <c r="AS2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU2" t="n">
         <v>8.5</v>
@@ -950,19 +950,19 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="R3" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -1111,40 +1111,40 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
         <v>1.57</v>
@@ -1159,10 +1159,10 @@
         <v>1.57</v>
       </c>
       <c r="W4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y4" t="n">
         <v>9.5</v>
@@ -1180,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1192,13 +1192,13 @@
         <v>501</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK4" t="n">
         <v>51</v>
@@ -1213,7 +1213,7 @@
         <v>3.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
         <v>29</v>
@@ -1243,7 +1243,7 @@
         <v>6</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
         <v>41</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="H5" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="K5" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
@@ -1323,25 +1323,25 @@
         <v>5.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X5" t="n">
         <v>6.5</v>
@@ -1359,40 +1359,40 @@
         <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF5" t="n">
         <v>81</v>
       </c>
       <c r="AG5" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH5" t="n">
         <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ5" t="n">
         <v>34</v>
       </c>
       <c r="AK5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM5" t="n">
         <v>67</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO5" t="n">
         <v>5</v>
@@ -1401,7 +1401,7 @@
         <v>17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR5" t="n">
         <v>34</v>
@@ -1410,10 +1410,10 @@
         <v>126</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV5" t="n">
         <v>67</v>
@@ -1422,16 +1422,16 @@
         <v>151</v>
       </c>
       <c r="AX5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY5" t="n">
         <v>51</v>
       </c>
       <c r="AZ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA5" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB5" t="n">
         <v>251</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
         <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="J6" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="K6" t="n">
         <v>2.35</v>
       </c>
       <c r="L6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1505,10 +1505,10 @@
         <v>4.65</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R6" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="S6" t="n">
         <v>1.27</v>
@@ -1523,10 +1523,10 @@
         <v>2.6</v>
       </c>
       <c r="W6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="X6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y6" t="n">
         <v>9.25</v>
@@ -1535,10 +1535,10 @@
         <v>24</v>
       </c>
       <c r="AA6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB6" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC6" t="n">
         <v>9.25</v>
@@ -1556,46 +1556,46 @@
         <v>175</v>
       </c>
       <c r="AH6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI6" t="n">
         <v>18.5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AK6" t="n">
         <v>35</v>
       </c>
       <c r="AL6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM6" t="n">
         <v>21</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS6" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AT6" t="n">
         <v>3.4</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AV6" t="n">
         <v>40</v>
@@ -1607,16 +1607,16 @@
         <v>5.2</v>
       </c>
       <c r="AY6" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AZ6" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="BA6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BB6" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BC6" t="n">
         <v>150</v>
@@ -2021,55 +2021,55 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="R9" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X9" t="n">
         <v>8</v>
@@ -2078,7 +2078,7 @@
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA9" t="n">
         <v>15</v>
@@ -2087,7 +2087,7 @@
         <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD9" t="n">
         <v>7</v>
@@ -2099,22 +2099,22 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="n">
         <v>15</v>
       </c>
       <c r="AK9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
         <v>41</v>
@@ -2123,13 +2123,13 @@
         <v>3.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP9" t="n">
         <v>21</v>
       </c>
       <c r="AQ9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR9" t="n">
         <v>51</v>
@@ -2138,7 +2138,7 @@
         <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU9" t="n">
         <v>8.5</v>
@@ -2150,10 +2150,10 @@
         <v>51</v>
       </c>
       <c r="AX9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
         <v>34</v>
@@ -2209,7 +2209,7 @@
         <v>2.88</v>
       </c>
       <c r="I10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J10" t="n">
         <v>3</v>
@@ -2221,10 +2221,10 @@
         <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
         <v>1.67</v>
@@ -2293,7 +2293,7 @@
         <v>17</v>
       </c>
       <c r="AK10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="n">
         <v>41</v>
@@ -2385,16 +2385,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
         <v>3.6</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
         <v>1.91</v>
@@ -2403,16 +2403,16 @@
         <v>4.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P11" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q11" t="n">
         <v>2.7</v>
@@ -2436,13 +2436,13 @@
         <v>5.5</v>
       </c>
       <c r="X11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y11" t="n">
         <v>10</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA11" t="n">
         <v>23</v>
@@ -2493,7 +2493,7 @@
         <v>29</v>
       </c>
       <c r="AQ11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
         <v>81</v>
@@ -2567,28 +2567,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
         <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K12" t="n">
         <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
         <v>1.4</v>
@@ -2615,13 +2615,13 @@
         <v>1.73</v>
       </c>
       <c r="W12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z12" t="n">
         <v>41</v>
@@ -2645,19 +2645,19 @@
         <v>67</v>
       </c>
       <c r="AG12" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>9</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL12" t="n">
         <v>19</v>
@@ -2669,7 +2669,7 @@
         <v>5.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP12" t="n">
         <v>34</v>
@@ -2687,7 +2687,7 @@
         <v>2.5</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV12" t="n">
         <v>67</v>
@@ -2699,10 +2699,10 @@
         <v>4</v>
       </c>
       <c r="AY12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA12" t="n">
         <v>41</v>
@@ -2749,16 +2749,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H13" t="n">
         <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K13" t="n">
         <v>2.25</v>
@@ -2806,7 +2806,7 @@
         <v>9.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="n">
         <v>17</v>
@@ -2836,7 +2836,7 @@
         <v>15</v>
       </c>
       <c r="AJ13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2851,10 +2851,10 @@
         <v>4.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ13" t="n">
         <v>41</v>
@@ -2890,7 +2890,7 @@
         <v>51</v>
       </c>
       <c r="BB13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC13" t="n">
         <v>126</v>
@@ -2931,13 +2931,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H14" t="n">
         <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J14" t="n">
         <v>3.1</v>
@@ -2946,7 +2946,7 @@
         <v>2.25</v>
       </c>
       <c r="L14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2979,13 +2979,13 @@
         <v>2.2</v>
       </c>
       <c r="W14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X14" t="n">
         <v>13</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z14" t="n">
         <v>23</v>
@@ -3015,7 +3015,7 @@
         <v>10</v>
       </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ14" t="n">
         <v>10</v>
@@ -3072,10 +3072,10 @@
         <v>41</v>
       </c>
       <c r="BB14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD14" t="n">
         <v>126</v>
@@ -3113,7 +3113,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
         <v>3.2</v>
@@ -3128,7 +3128,7 @@
         <v>2.05</v>
       </c>
       <c r="L15" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
@@ -3203,7 +3203,7 @@
         <v>11</v>
       </c>
       <c r="AK15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL15" t="n">
         <v>26</v>
@@ -3242,7 +3242,7 @@
         <v>126</v>
       </c>
       <c r="AX15" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY15" t="n">
         <v>17</v>
@@ -3495,10 +3495,10 @@
         <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
         <v>1.2</v>
@@ -3659,28 +3659,28 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H18" t="n">
         <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J18" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
         <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O18" t="n">
         <v>1.25</v>
@@ -3689,10 +3689,10 @@
         <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R18" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S18" t="n">
         <v>1.36</v>
@@ -3701,10 +3701,10 @@
         <v>3</v>
       </c>
       <c r="U18" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W18" t="n">
         <v>10</v>
@@ -3719,13 +3719,13 @@
         <v>26</v>
       </c>
       <c r="AA18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB18" t="n">
         <v>26</v>
       </c>
       <c r="AC18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="n">
         <v>6.5</v>
@@ -3743,7 +3743,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
         <v>10</v>
@@ -3761,7 +3761,7 @@
         <v>4.75</v>
       </c>
       <c r="AO18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP18" t="n">
         <v>21</v>
@@ -3770,7 +3770,7 @@
         <v>41</v>
       </c>
       <c r="AR18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS18" t="n">
         <v>151</v>
@@ -3800,7 +3800,7 @@
         <v>41</v>
       </c>
       <c r="BB18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC18" t="n">
         <v>151</v>
@@ -3841,28 +3841,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H19" t="n">
         <v>2.88</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="J19" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K19" t="n">
         <v>1.95</v>
       </c>
       <c r="L19" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O19" t="n">
         <v>1.44</v>
@@ -3877,7 +3877,7 @@
         <v>1.5</v>
       </c>
       <c r="S19" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T19" t="n">
         <v>2.25</v>
@@ -3889,19 +3889,19 @@
         <v>1.7</v>
       </c>
       <c r="W19" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA19" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AB19" t="n">
         <v>41</v>
@@ -3922,28 +3922,28 @@
         <v>501</v>
       </c>
       <c r="AH19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK19" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AL19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM19" t="n">
         <v>41</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AO19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP19" t="n">
         <v>29</v>
@@ -3952,10 +3952,10 @@
         <v>51</v>
       </c>
       <c r="AR19" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS19" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT19" t="n">
         <v>2.25</v>
@@ -3970,22 +3970,22 @@
         <v>126</v>
       </c>
       <c r="AX19" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY19" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB19" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC19" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD19" t="n">
         <v>126</v>
@@ -4387,10 +4387,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H22" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I22" t="n">
         <v>2.8</v>
@@ -4399,7 +4399,7 @@
         <v>3.6</v>
       </c>
       <c r="K22" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L22" t="n">
         <v>3.75</v>
@@ -4411,16 +4411,16 @@
         <v>6</v>
       </c>
       <c r="O22" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P22" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R22" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S22" t="n">
         <v>1.62</v>
@@ -4441,7 +4441,7 @@
         <v>12</v>
       </c>
       <c r="Y22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z22" t="n">
         <v>29</v>
@@ -4501,7 +4501,7 @@
         <v>101</v>
       </c>
       <c r="AS22" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT22" t="n">
         <v>2.2</v>
@@ -4516,7 +4516,7 @@
         <v>81</v>
       </c>
       <c r="AX22" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY22" t="n">
         <v>17</v>
@@ -4525,7 +4525,7 @@
         <v>34</v>
       </c>
       <c r="BA22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB22" t="n">
         <v>101</v>
@@ -4575,7 +4575,7 @@
         <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J23" t="n">
         <v>2.38</v>
@@ -4584,7 +4584,7 @@
         <v>2.2</v>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
@@ -4620,7 +4620,7 @@
         <v>7</v>
       </c>
       <c r="X23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y23" t="n">
         <v>8.5</v>
@@ -4635,7 +4635,7 @@
         <v>26</v>
       </c>
       <c r="AC23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD23" t="n">
         <v>7</v>
@@ -4662,7 +4662,7 @@
         <v>51</v>
       </c>
       <c r="AL23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM23" t="n">
         <v>41</v>
@@ -4704,7 +4704,7 @@
         <v>23</v>
       </c>
       <c r="AZ23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA23" t="n">
         <v>81</v>
@@ -4933,22 +4933,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="H25" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>5.25</v>
+        <v>3.9</v>
       </c>
       <c r="J25" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="K25" t="n">
         <v>2.2</v>
       </c>
       <c r="L25" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
@@ -4957,16 +4957,16 @@
         <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R25" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S25" t="n">
         <v>1.4</v>
@@ -4975,73 +4975,73 @@
         <v>2.75</v>
       </c>
       <c r="U25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.91</v>
       </c>
-      <c r="V25" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W25" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X25" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z25" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AA25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC25" t="n">
         <v>10</v>
       </c>
       <c r="AD25" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
         <v>51</v>
       </c>
       <c r="AG25" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>13</v>
       </c>
-      <c r="AI25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>17</v>
-      </c>
       <c r="AK25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM25" t="n">
         <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AO25" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AP25" t="n">
         <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AR25" t="n">
         <v>51</v>
@@ -5053,7 +5053,7 @@
         <v>2.75</v>
       </c>
       <c r="AU25" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV25" t="n">
         <v>51</v>
@@ -5062,22 +5062,22 @@
         <v>81</v>
       </c>
       <c r="AX25" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AY25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ25" t="n">
         <v>29</v>
       </c>
-      <c r="AZ25" t="n">
-        <v>34</v>
-      </c>
       <c r="BA25" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB25" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BC25" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD25" t="n">
         <v>81</v>
@@ -5115,13 +5115,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I26" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J26" t="n">
         <v>3.75</v>
@@ -5130,7 +5130,7 @@
         <v>1.95</v>
       </c>
       <c r="L26" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M26" t="n">
         <v>1.1</v>
@@ -5172,7 +5172,7 @@
         <v>12</v>
       </c>
       <c r="Z26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA26" t="n">
         <v>29</v>
@@ -5196,16 +5196,16 @@
         <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI26" t="n">
         <v>11</v>
       </c>
       <c r="AJ26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL26" t="n">
         <v>23</v>
@@ -5217,7 +5217,7 @@
         <v>4.75</v>
       </c>
       <c r="AO26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP26" t="n">
         <v>29</v>
@@ -5244,7 +5244,7 @@
         <v>81</v>
       </c>
       <c r="AX26" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AY26" t="n">
         <v>15</v>
@@ -5297,40 +5297,40 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H27" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J27" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K27" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O27" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P27" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="R27" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="S27" t="n">
         <v>1.36</v>
@@ -5339,10 +5339,10 @@
         <v>3</v>
       </c>
       <c r="U27" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V27" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W27" t="n">
         <v>6</v>
@@ -5354,7 +5354,7 @@
         <v>9</v>
       </c>
       <c r="Z27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA27" t="n">
         <v>13</v>
@@ -5363,10 +5363,10 @@
         <v>34</v>
       </c>
       <c r="AC27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD27" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
@@ -5378,34 +5378,34 @@
         <v>1250</v>
       </c>
       <c r="AH27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI27" t="n">
         <v>41</v>
       </c>
       <c r="AJ27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK27" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP27" t="n">
         <v>21</v>
       </c>
       <c r="AQ27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR27" t="n">
         <v>41</v>
@@ -5417,7 +5417,7 @@
         <v>3</v>
       </c>
       <c r="AU27" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV27" t="n">
         <v>67</v>
@@ -5426,7 +5426,7 @@
         <v>81</v>
       </c>
       <c r="AX27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AY27" t="n">
         <v>41</v>
@@ -5435,7 +5435,7 @@
         <v>41</v>
       </c>
       <c r="BA27" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB27" t="n">
         <v>201</v>
@@ -5479,22 +5479,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="H28" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="J28" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
         <v>2.05</v>
       </c>
       <c r="L28" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
@@ -5515,10 +5515,10 @@
         <v>1.67</v>
       </c>
       <c r="S28" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T28" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U28" t="n">
         <v>1.83</v>
@@ -5527,25 +5527,25 @@
         <v>1.83</v>
       </c>
       <c r="W28" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y28" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB28" t="n">
         <v>34</v>
       </c>
       <c r="AC28" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD28" t="n">
         <v>6</v>
@@ -5560,34 +5560,34 @@
         <v>301</v>
       </c>
       <c r="AH28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO28" t="n">
         <v>13</v>
       </c>
-      <c r="AJ28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>15</v>
-      </c>
       <c r="AP28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR28" t="n">
         <v>67</v>
@@ -5596,7 +5596,7 @@
         <v>201</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU28" t="n">
         <v>8.5</v>
@@ -5608,16 +5608,16 @@
         <v>81</v>
       </c>
       <c r="AX28" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ28" t="n">
         <v>29</v>
       </c>
       <c r="BA28" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB28" t="n">
         <v>81</v>
@@ -5664,7 +5664,7 @@
         <v>3.4</v>
       </c>
       <c r="H29" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I29" t="n">
         <v>1.95</v>
@@ -5673,7 +5673,7 @@
         <v>3.75</v>
       </c>
       <c r="K29" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L29" t="n">
         <v>2.5</v>
@@ -5682,7 +5682,7 @@
         <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O29" t="n">
         <v>1.18</v>
@@ -5691,25 +5691,25 @@
         <v>4.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R29" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S29" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T29" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U29" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="V29" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X29" t="n">
         <v>21</v>
@@ -5721,13 +5721,13 @@
         <v>41</v>
       </c>
       <c r="AA29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD29" t="n">
         <v>7.5</v>
@@ -5736,16 +5736,16 @@
         <v>12</v>
       </c>
       <c r="AF29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG29" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI29" t="n">
         <v>11</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>12</v>
       </c>
       <c r="AJ29" t="n">
         <v>9</v>
@@ -5766,19 +5766,19 @@
         <v>17</v>
       </c>
       <c r="AP29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ29" t="n">
         <v>51</v>
       </c>
       <c r="AR29" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS29" t="n">
         <v>126</v>
       </c>
       <c r="AT29" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU29" t="n">
         <v>7</v>
@@ -5843,13 +5843,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H30" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J30" t="n">
         <v>2.88</v>
@@ -5879,10 +5879,10 @@
         <v>1.73</v>
       </c>
       <c r="S30" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T30" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U30" t="n">
         <v>1.83</v>
@@ -5894,7 +5894,7 @@
         <v>7.5</v>
       </c>
       <c r="X30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y30" t="n">
         <v>9.5</v>
@@ -5903,16 +5903,16 @@
         <v>21</v>
       </c>
       <c r="AA30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB30" t="n">
         <v>29</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE30" t="n">
         <v>15</v>
@@ -5924,7 +5924,7 @@
         <v>301</v>
       </c>
       <c r="AH30" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI30" t="n">
         <v>15</v>
@@ -5936,7 +5936,7 @@
         <v>34</v>
       </c>
       <c r="AL30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM30" t="n">
         <v>34</v>
@@ -5960,7 +5960,7 @@
         <v>151</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU30" t="n">
         <v>7.5</v>
@@ -6025,22 +6025,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="H31" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I31" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K31" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
@@ -6049,28 +6049,28 @@
         <v>15</v>
       </c>
       <c r="O31" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P31" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R31" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S31" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T31" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U31" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V31" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W31" t="n">
         <v>10</v>
@@ -6079,22 +6079,22 @@
         <v>12</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z31" t="n">
         <v>21</v>
       </c>
       <c r="AA31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC31" t="n">
         <v>15</v>
       </c>
       <c r="AD31" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -6106,19 +6106,19 @@
         <v>126</v>
       </c>
       <c r="AH31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="n">
         <v>11</v>
       </c>
       <c r="AK31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM31" t="n">
         <v>26</v>
@@ -6127,13 +6127,13 @@
         <v>4.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP31" t="n">
         <v>19</v>
       </c>
       <c r="AQ31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR31" t="n">
         <v>51</v>
@@ -6142,10 +6142,10 @@
         <v>101</v>
       </c>
       <c r="AT31" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU31" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV31" t="n">
         <v>41</v>
@@ -6154,10 +6154,10 @@
         <v>81</v>
       </c>
       <c r="AX31" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ31" t="n">
         <v>21</v>
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="H32" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K32" t="n">
         <v>2.38</v>
       </c>
-      <c r="K32" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L32" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M32" t="n">
         <v>1.04</v>
@@ -6237,16 +6237,16 @@
         <v>4</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="R32" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S32" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T32" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U32" t="n">
         <v>1.73</v>
@@ -6258,13 +6258,13 @@
         <v>8</v>
       </c>
       <c r="X32" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y32" t="n">
         <v>8.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA32" t="n">
         <v>13</v>
@@ -6273,58 +6273,58 @@
         <v>23</v>
       </c>
       <c r="AC32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE32" t="n">
         <v>15</v>
       </c>
       <c r="AF32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG32" t="n">
         <v>201</v>
       </c>
       <c r="AH32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ32" t="n">
         <v>15</v>
       </c>
       <c r="AK32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN32" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ32" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AR32" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS32" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT32" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU32" t="n">
         <v>8</v>
@@ -6336,22 +6336,22 @@
         <v>81</v>
       </c>
       <c r="AX32" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ32" t="n">
         <v>29</v>
       </c>
       <c r="BA32" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB32" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC32" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD32" t="n">
         <v>81</v>
@@ -6389,22 +6389,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="H33" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I33" t="n">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="J33" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K33" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L33" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
@@ -6413,16 +6413,16 @@
         <v>15</v>
       </c>
       <c r="O33" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P33" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R33" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S33" t="n">
         <v>1.3</v>
@@ -6437,19 +6437,19 @@
         <v>2.38</v>
       </c>
       <c r="W33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB33" t="n">
         <v>23</v>
@@ -6461,7 +6461,7 @@
         <v>7</v>
       </c>
       <c r="AE33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF33" t="n">
         <v>34</v>
@@ -6470,31 +6470,31 @@
         <v>126</v>
       </c>
       <c r="AH33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO33" t="n">
         <v>15</v>
       </c>
-      <c r="AJ33" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>13</v>
-      </c>
       <c r="AP33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ33" t="n">
         <v>41</v>
@@ -6518,10 +6518,10 @@
         <v>351</v>
       </c>
       <c r="AX33" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ33" t="n">
         <v>19</v>
@@ -6571,40 +6571,40 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="H34" t="n">
         <v>3.7</v>
       </c>
       <c r="I34" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K34" t="n">
         <v>2.3</v>
       </c>
       <c r="L34" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O34" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P34" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R34" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S34" t="n">
         <v>1.33</v>
@@ -6655,16 +6655,16 @@
         <v>8.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ34" t="n">
         <v>8.5</v>
       </c>
       <c r="AK34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM34" t="n">
         <v>23</v>
@@ -6673,7 +6673,7 @@
         <v>6</v>
       </c>
       <c r="AO34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP34" t="n">
         <v>26</v>
@@ -6703,16 +6703,16 @@
         <v>4</v>
       </c>
       <c r="AY34" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AZ34" t="n">
         <v>19</v>
       </c>
       <c r="BA34" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BC34" t="n">
         <v>101</v>
@@ -6956,7 +6956,7 @@
         <v>1.02</v>
       </c>
       <c r="N36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O36" t="n">
         <v>1.13</v>
@@ -6989,7 +6989,7 @@
         <v>8.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z36" t="n">
         <v>10</v>
@@ -7001,7 +7001,7 @@
         <v>21</v>
       </c>
       <c r="AC36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD36" t="n">
         <v>10</v>
@@ -7034,7 +7034,7 @@
         <v>41</v>
       </c>
       <c r="AN36" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO36" t="n">
         <v>6.5</v>
@@ -7243,7 +7243,7 @@
         <v>51</v>
       </c>
       <c r="AW37" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX37" t="n">
         <v>6</v>
@@ -7481,22 +7481,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H39" t="n">
         <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="J39" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K39" t="n">
         <v>2.25</v>
       </c>
       <c r="L39" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M39" t="n">
         <v>1.04</v>
@@ -7505,10 +7505,10 @@
         <v>13</v>
       </c>
       <c r="O39" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P39" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q39" t="n">
         <v>1.7</v>
@@ -7535,7 +7535,7 @@
         <v>15</v>
       </c>
       <c r="Y39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z39" t="n">
         <v>29</v>
@@ -7574,7 +7574,7 @@
         <v>23</v>
       </c>
       <c r="AL39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM39" t="n">
         <v>23</v>
@@ -7589,7 +7589,7 @@
         <v>21</v>
       </c>
       <c r="AQ39" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR39" t="n">
         <v>51</v>
@@ -7610,7 +7610,7 @@
         <v>451</v>
       </c>
       <c r="AX39" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY39" t="n">
         <v>13</v>
@@ -7663,22 +7663,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H40" t="n">
         <v>3.5</v>
       </c>
       <c r="I40" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J40" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K40" t="n">
         <v>2.25</v>
       </c>
       <c r="L40" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M40" t="n">
         <v>1.04</v>
@@ -7714,13 +7714,13 @@
         <v>8.5</v>
       </c>
       <c r="X40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y40" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA40" t="n">
         <v>15</v>
@@ -7744,25 +7744,25 @@
         <v>151</v>
       </c>
       <c r="AH40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI40" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ40" t="n">
         <v>12</v>
       </c>
       <c r="AK40" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL40" t="n">
         <v>26</v>
       </c>
       <c r="AM40" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN40" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO40" t="n">
         <v>11</v>
@@ -7771,7 +7771,7 @@
         <v>19</v>
       </c>
       <c r="AQ40" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR40" t="n">
         <v>51</v>
@@ -7795,16 +7795,16 @@
         <v>5.5</v>
       </c>
       <c r="AY40" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ40" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA40" t="n">
         <v>51</v>
       </c>
       <c r="BB40" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC40" t="n">
         <v>151</v>
@@ -7845,22 +7845,22 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H41" t="n">
         <v>3.5</v>
       </c>
       <c r="I41" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J41" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K41" t="n">
         <v>2.25</v>
       </c>
       <c r="L41" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M41" t="n">
         <v>1.04</v>
@@ -7902,10 +7902,10 @@
         <v>10</v>
       </c>
       <c r="Z41" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB41" t="n">
         <v>26</v>
@@ -7917,7 +7917,7 @@
         <v>7</v>
       </c>
       <c r="AE41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF41" t="n">
         <v>41</v>
@@ -7938,13 +7938,13 @@
         <v>23</v>
       </c>
       <c r="AL41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM41" t="n">
         <v>23</v>
       </c>
       <c r="AN41" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO41" t="n">
         <v>15</v>
@@ -8039,7 +8039,7 @@
         <v>2.88</v>
       </c>
       <c r="K42" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L42" t="n">
         <v>3.4</v>
@@ -8051,16 +8051,16 @@
         <v>13</v>
       </c>
       <c r="O42" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P42" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R42" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S42" t="n">
         <v>1.33</v>
@@ -8069,13 +8069,13 @@
         <v>3.25</v>
       </c>
       <c r="U42" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V42" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X42" t="n">
         <v>12</v>
@@ -8099,7 +8099,7 @@
         <v>7</v>
       </c>
       <c r="AE42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF42" t="n">
         <v>41</v>
@@ -8111,7 +8111,7 @@
         <v>11</v>
       </c>
       <c r="AI42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ42" t="n">
         <v>11</v>
@@ -8132,7 +8132,7 @@
         <v>12</v>
       </c>
       <c r="AP42" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ42" t="n">
         <v>41</v>
@@ -8168,7 +8168,7 @@
         <v>51</v>
       </c>
       <c r="BB42" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC42" t="n">
         <v>126</v>
@@ -8209,46 +8209,46 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="H43" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J43" t="n">
         <v>2.85</v>
       </c>
       <c r="K43" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L43" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="M43" t="n">
         <v>1.06</v>
       </c>
       <c r="N43" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="O43" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P43" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R43" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S43" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="T43" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="U43" t="n">
         <v>1.65</v>
@@ -8257,31 +8257,31 @@
         <v>2.12</v>
       </c>
       <c r="W43" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="X43" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y43" t="n">
         <v>8.75</v>
       </c>
       <c r="Z43" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA43" t="n">
         <v>17.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC43" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AD43" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AE43" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF43" t="n">
         <v>50</v>
@@ -8290,43 +8290,43 @@
         <v>350</v>
       </c>
       <c r="AH43" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AI43" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ43" t="n">
         <v>10.5</v>
       </c>
       <c r="AK43" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL43" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM43" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AN43" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="AO43" t="n">
         <v>12</v>
       </c>
       <c r="AP43" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ43" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR43" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS43" t="n">
         <v>200</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="AU43" t="n">
         <v>6.6</v>
@@ -8338,19 +8338,19 @@
         <v>51</v>
       </c>
       <c r="AX43" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AY43" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AZ43" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA43" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB43" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BC43" t="n">
         <v>250</v>
@@ -8397,16 +8397,16 @@
         <v>3.95</v>
       </c>
       <c r="I44" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="J44" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="K44" t="n">
         <v>2.4</v>
       </c>
       <c r="L44" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="M44" t="n">
         <v>1.03</v>
@@ -8415,46 +8415,46 @@
         <v>9.25</v>
       </c>
       <c r="O44" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P44" t="n">
-        <v>4.65</v>
+        <v>4.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R44" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="S44" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="T44" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="U44" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V44" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="W44" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="X44" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="Y44" t="n">
         <v>8.25</v>
       </c>
       <c r="Z44" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA44" t="n">
         <v>12</v>
       </c>
       <c r="AB44" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC44" t="n">
         <v>9.25</v>
@@ -8463,16 +8463,16 @@
         <v>8.25</v>
       </c>
       <c r="AE44" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF44" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG44" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AH44" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI44" t="n">
         <v>30</v>
@@ -8484,55 +8484,55 @@
         <v>70</v>
       </c>
       <c r="AL44" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM44" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN44" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AO44" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AP44" t="n">
         <v>14</v>
       </c>
       <c r="AQ44" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR44" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AS44" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AT44" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AU44" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV44" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AW44" t="n">
         <v>500</v>
       </c>
       <c r="AX44" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AY44" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ44" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA44" t="n">
         <v>100</v>
       </c>
       <c r="BB44" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BC44" t="n">
         <v>200</v>
@@ -8573,151 +8573,151 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="H45" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I45" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="J45" t="n">
-        <v>2.22</v>
+        <v>2.57</v>
       </c>
       <c r="K45" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L45" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="M45" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N45" t="n">
+        <v>8</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V45" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="W45" t="n">
         <v>8.25</v>
       </c>
-      <c r="O45" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P45" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R45" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T45" t="n">
-        <v>3</v>
-      </c>
-      <c r="U45" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V45" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="W45" t="n">
-        <v>8</v>
-      </c>
       <c r="X45" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y45" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y45" t="n">
-        <v>8.25</v>
-      </c>
       <c r="Z45" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AA45" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AB45" t="n">
         <v>23</v>
       </c>
       <c r="AC45" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD45" t="n">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="AE45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF45" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AG45" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AH45" t="n">
-        <v>13.5</v>
+        <v>11.75</v>
       </c>
       <c r="AI45" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AJ45" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AK45" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR45" t="n">
         <v>65</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>37</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AP45" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ45" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR45" t="n">
-        <v>55</v>
       </c>
       <c r="AS45" t="n">
         <v>200</v>
       </c>
       <c r="AT45" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="AU45" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AV45" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW45" t="n">
         <v>51</v>
       </c>
       <c r="AX45" t="n">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="AY45" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AZ45" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="BA45" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="BB45" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="BC45" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="BD45" t="n">
         <v>51</v>
@@ -8755,148 +8755,148 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="H46" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="I46" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="J46" t="n">
-        <v>2.27</v>
+        <v>2.42</v>
       </c>
       <c r="K46" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="L46" t="n">
-        <v>4.8</v>
+        <v>4.45</v>
       </c>
       <c r="M46" t="n">
         <v>1.07</v>
       </c>
       <c r="N46" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="O46" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P46" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R46" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S46" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T46" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="U46" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V46" t="n">
         <v>1.88</v>
       </c>
-      <c r="V46" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W46" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="X46" t="n">
-        <v>7.8</v>
+        <v>8.75</v>
       </c>
       <c r="Y46" t="n">
         <v>8.25</v>
       </c>
       <c r="Z46" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA46" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AB46" t="n">
         <v>28</v>
       </c>
       <c r="AC46" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AD46" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="AE46" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AF46" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG46" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH46" t="n">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="AI46" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AJ46" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AK46" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AL46" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM46" t="n">
         <v>45</v>
       </c>
-      <c r="AM46" t="n">
-        <v>50</v>
-      </c>
       <c r="AN46" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO46" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AP46" t="n">
         <v>17.5</v>
       </c>
       <c r="AQ46" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AR46" t="n">
         <v>60</v>
       </c>
       <c r="AS46" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="AU46" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AV46" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW46" t="n">
         <v>51</v>
       </c>
       <c r="AX46" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="AY46" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ46" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="BA46" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BB46" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC46" t="n">
         <v>400</v>
@@ -8937,142 +8937,142 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="H47" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I47" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="J47" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="K47" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="L47" t="n">
-        <v>11.25</v>
+        <v>13.5</v>
       </c>
       <c r="M47" t="n">
         <v>1.03</v>
       </c>
       <c r="N47" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="O47" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="P47" t="n">
-        <v>4.25</v>
+        <v>4.6</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R47" t="n">
-        <v>2.27</v>
+        <v>2.42</v>
       </c>
       <c r="S47" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="T47" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="U47" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="V47" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="W47" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="X47" t="n">
         <v>5.7</v>
       </c>
       <c r="Y47" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="AA47" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AB47" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE47" t="n">
         <v>37</v>
       </c>
-      <c r="AC47" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>32</v>
-      </c>
       <c r="AF47" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AG47" t="n">
         <v>201</v>
       </c>
       <c r="AH47" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="AI47" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="AJ47" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AK47" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AL47" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="AM47" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AN47" t="n">
         <v>2.92</v>
       </c>
       <c r="AO47" t="n">
-        <v>4.9</v>
+        <v>4.55</v>
       </c>
       <c r="AP47" t="n">
         <v>17</v>
       </c>
       <c r="AQ47" t="n">
-        <v>11.75</v>
+        <v>10.25</v>
       </c>
       <c r="AR47" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AS47" t="n">
         <v>250</v>
       </c>
       <c r="AT47" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="AU47" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AV47" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AW47" t="n">
         <v>51</v>
       </c>
       <c r="AX47" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AY47" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AZ47" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BA47" t="n">
         <v>500</v>
@@ -9119,19 +9119,19 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="H48" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="I48" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="J48" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="K48" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L48" t="n">
         <v>1.9</v>
@@ -9146,10 +9146,10 @@
         <v>1.28</v>
       </c>
       <c r="P48" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R48" t="n">
         <v>1.88</v>
@@ -9158,7 +9158,7 @@
         <v>1.39</v>
       </c>
       <c r="T48" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="U48" t="n">
         <v>2.12</v>
@@ -9167,13 +9167,13 @@
         <v>1.65</v>
       </c>
       <c r="W48" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="X48" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Y48" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z48" t="n">
         <v>200</v>
@@ -9188,10 +9188,10 @@
         <v>7.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE48" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF48" t="n">
         <v>120</v>
@@ -9200,16 +9200,16 @@
         <v>1000</v>
       </c>
       <c r="AH48" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AI48" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AJ48" t="n">
         <v>8.5</v>
       </c>
       <c r="AK48" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AL48" t="n">
         <v>12</v>
@@ -9218,16 +9218,16 @@
         <v>32</v>
       </c>
       <c r="AN48" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AO48" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AP48" t="n">
         <v>50</v>
       </c>
       <c r="AQ48" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AR48" t="n">
         <v>400</v>
@@ -9236,13 +9236,13 @@
         <v>500</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="AU48" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AV48" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AW48" t="n">
         <v>51</v>
@@ -9251,13 +9251,13 @@
         <v>3.1</v>
       </c>
       <c r="AY48" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AZ48" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="BA48" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="BB48" t="n">
         <v>55</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-24.xlsx
@@ -777,10 +777,10 @@
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -1305,10 +1305,10 @@
         <v>1.53</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="L5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
@@ -1323,16 +1323,16 @@
         <v>5.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="S5" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U5" t="n">
         <v>2.2</v>
@@ -1341,25 +1341,25 @@
         <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X5" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="n">
         <v>6.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>7</v>
       </c>
       <c r="AA5" t="n">
         <v>11</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD5" t="n">
         <v>15</v>
@@ -1389,7 +1389,7 @@
         <v>101</v>
       </c>
       <c r="AM5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN5" t="n">
         <v>3.2</v>
@@ -1410,7 +1410,7 @@
         <v>126</v>
       </c>
       <c r="AT5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU5" t="n">
         <v>11</v>
@@ -1431,13 +1431,13 @@
         <v>51</v>
       </c>
       <c r="BA5" t="n">
+        <v>351</v>
+      </c>
+      <c r="BB5" t="n">
         <v>301</v>
       </c>
-      <c r="BB5" t="n">
-        <v>251</v>
-      </c>
       <c r="BC5" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1857,10 +1857,10 @@
         <v>5.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O8" t="n">
         <v>1.22</v>
@@ -1869,10 +1869,10 @@
         <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R8" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
         <v>1.33</v>
@@ -2042,7 +2042,7 @@
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
         <v>1.33</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H10" t="n">
         <v>2.88</v>
       </c>
       <c r="I10" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J10" t="n">
         <v>3</v>
@@ -2245,22 +2245,22 @@
         <v>2.1</v>
       </c>
       <c r="U10" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V10" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W10" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
         <v>23</v>
@@ -2284,22 +2284,22 @@
         <v>201</v>
       </c>
       <c r="AH10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
         <v>17</v>
       </c>
       <c r="AK10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN10" t="n">
         <v>3.75</v>
@@ -2311,7 +2311,7 @@
         <v>34</v>
       </c>
       <c r="AQ10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
         <v>101</v>
@@ -2323,7 +2323,7 @@
         <v>2.1</v>
       </c>
       <c r="AU10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV10" t="n">
         <v>101</v>
@@ -2332,10 +2332,10 @@
         <v>81</v>
       </c>
       <c r="AX10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ10" t="n">
         <v>41</v>
@@ -2344,7 +2344,7 @@
         <v>101</v>
       </c>
       <c r="BB10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC10" t="n">
         <v>501</v>
@@ -2391,7 +2391,7 @@
         <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J11" t="n">
         <v>3.1</v>
@@ -2403,10 +2403,10 @@
         <v>4.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.57</v>
@@ -2469,10 +2469,10 @@
         <v>7.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
         <v>41</v>
@@ -2567,13 +2567,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J12" t="n">
         <v>4.5</v>
@@ -2582,25 +2582,25 @@
         <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R12" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S12" t="n">
         <v>1.5</v>
@@ -2615,7 +2615,7 @@
         <v>1.73</v>
       </c>
       <c r="W12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X12" t="n">
         <v>19</v>
@@ -2633,7 +2633,7 @@
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="n">
         <v>6</v>
@@ -2651,13 +2651,13 @@
         <v>6</v>
       </c>
       <c r="AI12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL12" t="n">
         <v>19</v>
@@ -2669,7 +2669,7 @@
         <v>5.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP12" t="n">
         <v>34</v>
@@ -2699,10 +2699,10 @@
         <v>4</v>
       </c>
       <c r="AY12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA12" t="n">
         <v>41</v>
@@ -2931,16 +2931,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H14" t="n">
         <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J14" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
         <v>2.25</v>
@@ -2961,16 +2961,16 @@
         <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T14" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U14" t="n">
         <v>1.62</v>
@@ -2988,7 +2988,7 @@
         <v>10</v>
       </c>
       <c r="Z14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA14" t="n">
         <v>19</v>
@@ -2997,7 +2997,7 @@
         <v>26</v>
       </c>
       <c r="AC14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD14" t="n">
         <v>7</v>
@@ -3024,7 +3024,7 @@
         <v>26</v>
       </c>
       <c r="AL14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM14" t="n">
         <v>26</v>
@@ -3048,7 +3048,7 @@
         <v>126</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU14" t="n">
         <v>7.5</v>
@@ -3063,7 +3063,7 @@
         <v>4.75</v>
       </c>
       <c r="AY14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ14" t="n">
         <v>21</v>
@@ -3134,7 +3134,7 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
         <v>1.36</v>
@@ -3295,13 +3295,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H16" t="n">
         <v>4.75</v>
       </c>
       <c r="I16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J16" t="n">
         <v>1.83</v>
@@ -3325,16 +3325,16 @@
         <v>4.33</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R16" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S16" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U16" t="n">
         <v>2</v>
@@ -3343,19 +3343,19 @@
         <v>1.73</v>
       </c>
       <c r="W16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X16" t="n">
         <v>6.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z16" t="n">
         <v>8.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB16" t="n">
         <v>26</v>
@@ -3376,16 +3376,16 @@
         <v>351</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
         <v>41</v>
       </c>
       <c r="AJ16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK16" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL16" t="n">
         <v>51</v>
@@ -3394,13 +3394,13 @@
         <v>51</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO16" t="n">
         <v>6.5</v>
       </c>
       <c r="AP16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ16" t="n">
         <v>17</v>
@@ -3412,10 +3412,10 @@
         <v>126</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
@@ -3439,7 +3439,7 @@
         <v>151</v>
       </c>
       <c r="BC16" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD16" t="n">
         <v>126</v>
@@ -3501,16 +3501,16 @@
         <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P17" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R17" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S17" t="n">
         <v>1.33</v>
@@ -3662,7 +3662,7 @@
         <v>2.55</v>
       </c>
       <c r="H18" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
         <v>2.7</v>
@@ -3671,28 +3671,28 @@
         <v>3.1</v>
       </c>
       <c r="K18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L18" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R18" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
         <v>1.36</v>
@@ -3773,7 +3773,7 @@
         <v>51</v>
       </c>
       <c r="AS18" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT18" t="n">
         <v>3</v>
@@ -3800,10 +3800,10 @@
         <v>41</v>
       </c>
       <c r="BB18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC18" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD18" t="n">
         <v>126</v>
@@ -3865,10 +3865,10 @@
         <v>7</v>
       </c>
       <c r="O19" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P19" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q19" t="n">
         <v>2.5</v>
@@ -3877,7 +3877,7 @@
         <v>1.5</v>
       </c>
       <c r="S19" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T19" t="n">
         <v>2.25</v>
@@ -7141,16 +7141,16 @@
         <v>11</v>
       </c>
       <c r="O37" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P37" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R37" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S37" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-24.xlsx
@@ -1857,10 +1857,10 @@
         <v>5.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
         <v>1.22</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H9" t="n">
         <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="J9" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K9" t="n">
         <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
@@ -2057,31 +2057,31 @@
         <v>1.75</v>
       </c>
       <c r="S9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
         <v>15</v>
       </c>
       <c r="AA9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB9" t="n">
         <v>29</v>
@@ -2099,16 +2099,16 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH9" t="n">
         <v>11</v>
       </c>
       <c r="AI9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK9" t="n">
         <v>41</v>
@@ -2120,7 +2120,7 @@
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO9" t="n">
         <v>10</v>
@@ -2138,7 +2138,7 @@
         <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU9" t="n">
         <v>8.5</v>
@@ -2153,10 +2153,10 @@
         <v>6</v>
       </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA9" t="n">
         <v>81</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I10" t="n">
-        <v>4.33</v>
+        <v>3.7</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.67</v>
@@ -2245,25 +2245,25 @@
         <v>2.1</v>
       </c>
       <c r="U10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V10" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W10" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X10" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
@@ -2284,34 +2284,34 @@
         <v>201</v>
       </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
         <v>34</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR10" t="n">
         <v>101</v>
@@ -2323,7 +2323,7 @@
         <v>2.1</v>
       </c>
       <c r="AU10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV10" t="n">
         <v>101</v>
@@ -2332,19 +2332,19 @@
         <v>81</v>
       </c>
       <c r="AX10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY10" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AZ10" t="n">
         <v>41</v>
       </c>
       <c r="BA10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="n">
         <v>501</v>
@@ -2391,55 +2391,55 @@
         <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J11" t="n">
         <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L11" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P11" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R11" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S11" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U11" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
         <v>21</v>
@@ -2451,28 +2451,28 @@
         <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD11" t="n">
         <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG11" t="n">
         <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>15</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>13</v>
       </c>
       <c r="AK11" t="n">
         <v>41</v>
@@ -2490,22 +2490,22 @@
         <v>13</v>
       </c>
       <c r="AP11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ11" t="n">
         <v>51</v>
       </c>
       <c r="AR11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS11" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV11" t="n">
         <v>81</v>
@@ -2526,7 +2526,7 @@
         <v>81</v>
       </c>
       <c r="BB11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC11" t="n">
         <v>301</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H12" t="n">
         <v>3.1</v>
@@ -2579,7 +2579,7 @@
         <v>4.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L12" t="n">
         <v>2.88</v>
@@ -2597,28 +2597,28 @@
         <v>2.63</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R12" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S12" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T12" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V12" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W12" t="n">
         <v>9</v>
       </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
         <v>15</v>
@@ -2660,7 +2660,7 @@
         <v>19</v>
       </c>
       <c r="AL12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM12" t="n">
         <v>34</v>
@@ -2678,13 +2678,13 @@
         <v>81</v>
       </c>
       <c r="AR12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS12" t="n">
         <v>301</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU12" t="n">
         <v>9</v>
@@ -2711,7 +2711,7 @@
         <v>67</v>
       </c>
       <c r="BC12" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H15" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
         <v>2.05</v>
       </c>
       <c r="L15" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
@@ -3143,16 +3143,16 @@
         <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R15" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S15" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T15" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U15" t="n">
         <v>1.83</v>
@@ -3164,22 +3164,22 @@
         <v>7.5</v>
       </c>
       <c r="X15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
         <v>10</v>
       </c>
       <c r="Z15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA15" t="n">
         <v>23</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>21</v>
       </c>
       <c r="AB15" t="n">
         <v>34</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD15" t="n">
         <v>6</v>
@@ -3191,13 +3191,13 @@
         <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
         <v>11</v>
@@ -3206,34 +3206,34 @@
         <v>29</v>
       </c>
       <c r="AL15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM15" t="n">
         <v>34</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP15" t="n">
         <v>26</v>
       </c>
       <c r="AQ15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS15" t="n">
         <v>201</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
@@ -3248,7 +3248,7 @@
         <v>17</v>
       </c>
       <c r="AZ15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA15" t="n">
         <v>51</v>
@@ -3295,28 +3295,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="H16" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="J16" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K16" t="n">
         <v>2.5</v>
       </c>
       <c r="L16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O16" t="n">
         <v>1.2</v>
@@ -3325,10 +3325,10 @@
         <v>4.33</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R16" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S16" t="n">
         <v>1.3</v>
@@ -3343,25 +3343,25 @@
         <v>1.73</v>
       </c>
       <c r="W16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X16" t="n">
         <v>6.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA16" t="n">
         <v>11</v>
       </c>
       <c r="AB16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD16" t="n">
         <v>9.5</v>
@@ -3376,31 +3376,31 @@
         <v>351</v>
       </c>
       <c r="AH16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP16" t="n">
         <v>19</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>17</v>
       </c>
       <c r="AQ16" t="n">
         <v>17</v>
@@ -3415,16 +3415,16 @@
         <v>3.4</v>
       </c>
       <c r="AU16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW16" t="n">
         <v>126</v>
       </c>
       <c r="AX16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AY16" t="n">
         <v>41</v>
@@ -3433,13 +3433,13 @@
         <v>41</v>
       </c>
       <c r="BA16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC16" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD16" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-09-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-09-24.xlsx
@@ -2021,28 +2021,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="J9" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K9" t="n">
         <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.33</v>
@@ -2057,10 +2057,10 @@
         <v>1.75</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U9" t="n">
         <v>1.83</v>
@@ -2072,13 +2072,13 @@
         <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="n">
         <v>17</v>
@@ -2090,10 +2090,10 @@
         <v>9.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
@@ -2102,19 +2102,19 @@
         <v>301</v>
       </c>
       <c r="AH9" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK9" t="n">
         <v>41</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM9" t="n">
         <v>41</v>
@@ -2123,13 +2123,13 @@
         <v>4</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP9" t="n">
         <v>21</v>
       </c>
       <c r="AQ9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR9" t="n">
         <v>51</v>
@@ -2138,10 +2138,10 @@
         <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
         <v>51</v>
@@ -2150,7 +2150,7 @@
         <v>51</v>
       </c>
       <c r="AX9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY9" t="n">
         <v>21</v>
@@ -2159,13 +2159,13 @@
         <v>29</v>
       </c>
       <c r="BA9" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB9" t="n">
         <v>81</v>
       </c>
-      <c r="BB9" t="n">
-        <v>101</v>
-      </c>
       <c r="BC9" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD9" t="n">
         <v>51</v>
@@ -2385,40 +2385,40 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I11" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
         <v>1.83</v>
       </c>
       <c r="L11" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="R11" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="S11" t="n">
         <v>1.67</v>
@@ -2436,7 +2436,7 @@
         <v>5</v>
       </c>
       <c r="X11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y11" t="n">
         <v>11</v>
@@ -2445,13 +2445,13 @@
         <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB11" t="n">
         <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD11" t="n">
         <v>6</v>
@@ -2469,7 +2469,7 @@
         <v>7</v>
       </c>
       <c r="AI11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="n">
         <v>15</v>
@@ -2487,7 +2487,7 @@
         <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP11" t="n">
         <v>34</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="H12" t="n">
         <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="J12" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>1.1</v>
@@ -2609,19 +2609,19 @@
         <v>2.38</v>
       </c>
       <c r="U12" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
         <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z12" t="n">
         <v>41</v>
@@ -2648,16 +2648,16 @@
         <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ12" t="n">
         <v>9.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
         <v>21</v>
@@ -2666,7 +2666,7 @@
         <v>34</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO12" t="n">
         <v>21</v>
@@ -2675,10 +2675,10 @@
         <v>34</v>
       </c>
       <c r="AQ12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR12" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS12" t="n">
         <v>301</v>
@@ -2699,7 +2699,7 @@
         <v>4</v>
       </c>
       <c r="AY12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ12" t="n">
         <v>26</v>
